--- a/AWRU Ranking Data Physics.xlsx
+++ b/AWRU Ranking Data Physics.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/code/arwu_scraper/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52A73C4-AFA9-634F-824F-1CB202A4F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1804,8 +1798,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1857,16 +1851,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,14 +1862,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1928,7 +1908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1960,27 +1940,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2012,24 +1974,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2205,26 +2149,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2255,8 +2188,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2269,7 +2202,7 @@
         <v>390.6</v>
       </c>
       <c r="E2">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F2">
         <v>87.8</v>
@@ -2287,8 +2220,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2301,7 +2234,7 @@
         <v>352.6</v>
       </c>
       <c r="E3">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F3">
         <v>85.5</v>
@@ -2319,8 +2252,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2333,13 +2266,13 @@
         <v>346.3</v>
       </c>
       <c r="E4">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F4">
         <v>90.8</v>
       </c>
       <c r="G4">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="H4">
         <v>77.7</v>
@@ -2351,8 +2284,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2368,13 +2301,13 @@
         <v>94.2</v>
       </c>
       <c r="F5">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G5">
         <v>74.7</v>
       </c>
       <c r="H5">
-        <v>92.6</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="I5">
         <v>69.7</v>
@@ -2383,8 +2316,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2397,7 +2330,7 @@
         <v>339</v>
       </c>
       <c r="E6">
-        <v>88.1</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="F6">
         <v>89.2</v>
@@ -2409,14 +2342,14 @@
         <v>66.2</v>
       </c>
       <c r="I6">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="J6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2432,10 +2365,10 @@
         <v>95.8</v>
       </c>
       <c r="F7">
-        <v>87.1</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G7">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="H7">
         <v>72.2</v>
@@ -2447,8 +2380,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2461,16 +2394,16 @@
         <v>334.8</v>
       </c>
       <c r="E8">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="F8">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G8">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H8">
-        <v>89.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="I8">
         <v>59.4</v>
@@ -2479,8 +2412,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2496,23 +2429,23 @@
         <v>88.2</v>
       </c>
       <c r="F9">
-        <v>85.9</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G9">
-        <v>83.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H9">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I9">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="J9" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:10">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2525,13 +2458,13 @@
         <v>321.5</v>
       </c>
       <c r="E10">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F10">
         <v>76.2</v>
       </c>
       <c r="G10">
-        <v>86.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -2543,8 +2476,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2554,16 +2487,16 @@
         <v>538</v>
       </c>
       <c r="D11">
-        <v>315.89999999999998</v>
+        <v>315.9</v>
       </c>
       <c r="E11">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="F11">
         <v>79.3</v>
       </c>
       <c r="G11">
-        <v>86.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H11">
         <v>75</v>
@@ -2575,8 +2508,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2592,13 +2525,13 @@
         <v>91</v>
       </c>
       <c r="F12">
-        <v>84.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G12">
         <v>87.7</v>
       </c>
       <c r="H12">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I12">
         <v>29.7</v>
@@ -2607,8 +2540,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2618,7 +2551,7 @@
         <v>539</v>
       </c>
       <c r="D13">
-        <v>298.10000000000002</v>
+        <v>298.1</v>
       </c>
       <c r="E13">
         <v>63.5</v>
@@ -2639,8 +2572,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:10">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2656,10 +2589,10 @@
         <v>60.5</v>
       </c>
       <c r="F14">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G14">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H14">
         <v>56.5</v>
@@ -2671,8 +2604,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:10">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2682,7 +2615,7 @@
         <v>536</v>
       </c>
       <c r="D15">
-        <v>289.39999999999998</v>
+        <v>289.4</v>
       </c>
       <c r="E15">
         <v>58.7</v>
@@ -2703,8 +2636,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:10">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2726,7 +2659,7 @@
         <v>88.3</v>
       </c>
       <c r="H16">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2735,8 +2668,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:10">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2767,8 +2700,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2799,8 +2732,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:10">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2816,10 +2749,10 @@
         <v>61.9</v>
       </c>
       <c r="F19">
-        <v>87.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G19">
-        <v>93.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H19">
         <v>57.4</v>
@@ -2831,8 +2764,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:10">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2842,16 +2775,16 @@
         <v>536</v>
       </c>
       <c r="D20">
-        <v>271.60000000000002</v>
+        <v>271.6</v>
       </c>
       <c r="E20">
         <v>54.8</v>
       </c>
       <c r="F20">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G20">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H20">
         <v>51.2</v>
@@ -2863,8 +2796,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:10">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2880,10 +2813,10 @@
         <v>71.3</v>
       </c>
       <c r="F21">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G21">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H21">
         <v>62.6</v>
@@ -2895,8 +2828,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:10">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2906,7 +2839,7 @@
         <v>536</v>
       </c>
       <c r="D22">
-        <v>259.60000000000002</v>
+        <v>259.6</v>
       </c>
       <c r="E22">
         <v>59.2</v>
@@ -2921,14 +2854,14 @@
         <v>51.5</v>
       </c>
       <c r="I22">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="J22" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:10">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2938,16 +2871,16 @@
         <v>536</v>
       </c>
       <c r="D23">
-        <v>258.39999999999998</v>
+        <v>258.4</v>
       </c>
       <c r="E23">
         <v>73.2</v>
       </c>
       <c r="F23">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G23">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H23">
         <v>82.8</v>
@@ -2959,8 +2892,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:10">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2970,7 +2903,7 @@
         <v>536</v>
       </c>
       <c r="D24">
-        <v>257.89999999999998</v>
+        <v>257.9</v>
       </c>
       <c r="E24">
         <v>61.2</v>
@@ -2991,8 +2924,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:10">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -3008,7 +2941,7 @@
         <v>81.3</v>
       </c>
       <c r="F25">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G25">
         <v>89.3</v>
@@ -3023,8 +2956,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:10">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -3043,7 +2976,7 @@
         <v>90.8</v>
       </c>
       <c r="G26">
-        <v>91.4</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="H26">
         <v>43.1</v>
@@ -3055,8 +2988,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:10">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -3069,7 +3002,7 @@
         <v>251.8</v>
       </c>
       <c r="E27">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="F27">
         <v>75.2</v>
@@ -3087,8 +3020,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:10">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -3107,7 +3040,7 @@
         <v>87.8</v>
       </c>
       <c r="G28">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="H28">
         <v>68</v>
@@ -3119,8 +3052,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:10">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -3136,10 +3069,10 @@
         <v>58.2</v>
       </c>
       <c r="F29">
-        <v>88.1</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G29">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H29">
         <v>40.1</v>
@@ -3151,8 +3084,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:10">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -3183,8 +3116,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:10">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3197,10 +3130,10 @@
         <v>240.3</v>
       </c>
       <c r="E31">
-        <v>84.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F31">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G31">
         <v>62.9</v>
@@ -3215,8 +3148,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
       <c r="B32" t="s">
@@ -3229,7 +3162,7 @@
         <v>239.6</v>
       </c>
       <c r="E32">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F32">
         <v>79.8</v>
@@ -3247,8 +3180,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
@@ -3267,7 +3200,7 @@
         <v>84.7</v>
       </c>
       <c r="G33">
-        <v>89.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="H33">
         <v>71.8</v>
@@ -3279,8 +3212,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
@@ -3311,8 +3244,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
@@ -3331,7 +3264,7 @@
         <v>83.7</v>
       </c>
       <c r="G35">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H35">
         <v>45.3</v>
@@ -3343,8 +3276,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
@@ -3360,10 +3293,10 @@
         <v>83.8</v>
       </c>
       <c r="F36">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G36">
-        <v>68.900000000000006</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="H36">
         <v>67.5</v>
@@ -3375,8 +3308,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>14</v>
       </c>
       <c r="B37" t="s">
@@ -3395,7 +3328,7 @@
         <v>81</v>
       </c>
       <c r="G37">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H37">
         <v>45.8</v>
@@ -3407,8 +3340,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
         <v>15</v>
       </c>
       <c r="B38" t="s">
@@ -3439,8 +3372,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
       <c r="B39" t="s">
@@ -3456,13 +3389,13 @@
         <v>70.5</v>
       </c>
       <c r="F39">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G39">
         <v>86.2</v>
       </c>
       <c r="H39">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3471,8 +3404,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
@@ -3488,13 +3421,13 @@
         <v>71.2</v>
       </c>
       <c r="F40">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G40">
         <v>86.2</v>
       </c>
       <c r="H40">
-        <v>70.400000000000006</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3503,8 +3436,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
         <v>18</v>
       </c>
       <c r="B41" t="s">
@@ -3517,10 +3450,10 @@
         <v>230.6</v>
       </c>
       <c r="E41">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F41">
-        <v>65.900000000000006</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G41">
         <v>70.8</v>
@@ -3535,8 +3468,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
@@ -3552,10 +3485,10 @@
         <v>48.6</v>
       </c>
       <c r="F42">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G42">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H42">
         <v>41.5</v>
@@ -3567,8 +3500,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
@@ -3584,7 +3517,7 @@
         <v>51.1</v>
       </c>
       <c r="F43">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G43">
         <v>87.5</v>
@@ -3599,8 +3532,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
@@ -3631,8 +3564,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
         <v>22</v>
       </c>
       <c r="B45" t="s">
@@ -3645,13 +3578,13 @@
         <v>226.8</v>
       </c>
       <c r="E45">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F45">
         <v>81.2</v>
       </c>
       <c r="G45">
-        <v>88.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H45">
         <v>55.4</v>
@@ -3663,8 +3596,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
         <v>23</v>
       </c>
       <c r="B46" t="s">
@@ -3695,8 +3628,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
         <v>24</v>
       </c>
       <c r="B47" t="s">
@@ -3715,7 +3648,7 @@
         <v>93.5</v>
       </c>
       <c r="G47">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="H47">
         <v>36.5</v>
@@ -3727,8 +3660,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
         <v>25</v>
       </c>
       <c r="B48" t="s">
@@ -3741,7 +3674,7 @@
         <v>221.9</v>
       </c>
       <c r="E48">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F48">
         <v>83.7</v>
@@ -3759,8 +3692,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
         <v>26</v>
       </c>
       <c r="B49" t="s">
@@ -3776,7 +3709,7 @@
         <v>51.5</v>
       </c>
       <c r="F49">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="G49">
         <v>90.5</v>
@@ -3791,8 +3724,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
         <v>27</v>
       </c>
       <c r="B50" t="s">
@@ -3811,7 +3744,7 @@
         <v>85</v>
       </c>
       <c r="G50">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H50">
         <v>56.2</v>
@@ -3823,8 +3756,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51" t="s">
@@ -3855,8 +3788,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
         <v>29</v>
       </c>
       <c r="B52" t="s">
@@ -3869,10 +3802,10 @@
         <v>66.3</v>
       </c>
       <c r="F52">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G52">
-        <v>88.1</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H52">
         <v>50.2</v>
@@ -3884,8 +3817,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
@@ -3898,10 +3831,10 @@
         <v>58.1</v>
       </c>
       <c r="F53">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G53">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H53">
         <v>51.7</v>
@@ -3913,8 +3846,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
@@ -3930,7 +3863,7 @@
         <v>85</v>
       </c>
       <c r="G54">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H54">
         <v>53.2</v>
@@ -3942,8 +3875,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
         <v>29</v>
       </c>
       <c r="B55" t="s">
@@ -3953,7 +3886,7 @@
         <v>549</v>
       </c>
       <c r="E55">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F55">
         <v>65.2</v>
@@ -3971,8 +3904,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
         <v>29</v>
       </c>
       <c r="B56" t="s">
@@ -4000,8 +3933,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
         <v>29</v>
       </c>
       <c r="B57" t="s">
@@ -4029,8 +3962,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
         <v>29</v>
       </c>
       <c r="B58" t="s">
@@ -4058,8 +3991,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
         <v>29</v>
       </c>
       <c r="B59" t="s">
@@ -4069,7 +4002,7 @@
         <v>542</v>
       </c>
       <c r="E59">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F59">
         <v>67</v>
@@ -4087,8 +4020,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
         <v>29</v>
       </c>
       <c r="B60" t="s">
@@ -4101,10 +4034,10 @@
         <v>60.7</v>
       </c>
       <c r="F60">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G60">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H60">
         <v>60.2</v>
@@ -4116,8 +4049,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
         <v>29</v>
       </c>
       <c r="B61" t="s">
@@ -4133,7 +4066,7 @@
         <v>91.8</v>
       </c>
       <c r="G61">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H61">
         <v>53.9</v>
@@ -4145,8 +4078,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
         <v>29</v>
       </c>
       <c r="B62" t="s">
@@ -4159,7 +4092,7 @@
         <v>66</v>
       </c>
       <c r="F62">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G62">
         <v>81.5</v>
@@ -4174,8 +4107,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
         <v>29</v>
       </c>
       <c r="B63" t="s">
@@ -4188,7 +4121,7 @@
         <v>49.3</v>
       </c>
       <c r="F63">
-        <v>97.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G63">
         <v>93.3</v>
@@ -4203,8 +4136,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
         <v>29</v>
       </c>
       <c r="B64" t="s">
@@ -4217,7 +4150,7 @@
         <v>48.3</v>
       </c>
       <c r="F64">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="G64">
         <v>91.5</v>
@@ -4232,8 +4165,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
         <v>29</v>
       </c>
       <c r="B65" t="s">
@@ -4261,8 +4194,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
         <v>29</v>
       </c>
       <c r="B66" t="s">
@@ -4275,7 +4208,7 @@
         <v>58.3</v>
       </c>
       <c r="F66">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G66">
         <v>94.2</v>
@@ -4290,8 +4223,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
         <v>29</v>
       </c>
       <c r="B67" t="s">
@@ -4307,7 +4240,7 @@
         <v>95.5</v>
       </c>
       <c r="G67">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H67">
         <v>56.5</v>
@@ -4319,8 +4252,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
         <v>29</v>
       </c>
       <c r="B68" t="s">
@@ -4336,7 +4269,7 @@
         <v>87.3</v>
       </c>
       <c r="G68">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="H68">
         <v>58</v>
@@ -4348,8 +4281,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
         <v>29</v>
       </c>
       <c r="B69" t="s">
@@ -4377,8 +4310,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
         <v>29</v>
       </c>
       <c r="B70" t="s">
@@ -4391,10 +4324,10 @@
         <v>53.7</v>
       </c>
       <c r="F70">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G70">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H70">
         <v>56.1</v>
@@ -4406,8 +4339,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
         <v>29</v>
       </c>
       <c r="B71" t="s">
@@ -4420,7 +4353,7 @@
         <v>52</v>
       </c>
       <c r="F71">
-        <v>89.9</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G71">
         <v>91.7</v>
@@ -4435,8 +4368,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
         <v>29</v>
       </c>
       <c r="B72" t="s">
@@ -4452,7 +4385,7 @@
         <v>92.8</v>
       </c>
       <c r="G72">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H72">
         <v>52.9</v>
@@ -4464,8 +4397,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
         <v>29</v>
       </c>
       <c r="B73" t="s">
@@ -4493,8 +4426,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
         <v>29</v>
       </c>
       <c r="B74" t="s">
@@ -4507,13 +4440,13 @@
         <v>42.7</v>
       </c>
       <c r="F74">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G74">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H74">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="I74">
         <v>42</v>
@@ -4522,8 +4455,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
         <v>29</v>
       </c>
       <c r="B75" t="s">
@@ -4536,10 +4469,10 @@
         <v>59.6</v>
       </c>
       <c r="F75">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G75">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H75">
         <v>57.4</v>
@@ -4551,8 +4484,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
         <v>29</v>
       </c>
       <c r="B76" t="s">
@@ -4565,7 +4498,7 @@
         <v>46.9</v>
       </c>
       <c r="F76">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G76">
         <v>93</v>
@@ -4580,8 +4513,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
         <v>29</v>
       </c>
       <c r="B77" t="s">
@@ -4597,7 +4530,7 @@
         <v>87.2</v>
       </c>
       <c r="G77">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="H77">
         <v>55.6</v>
@@ -4609,8 +4542,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
         <v>30</v>
       </c>
       <c r="B78" t="s">
@@ -4623,10 +4556,10 @@
         <v>47.5</v>
       </c>
       <c r="F78">
-        <v>93.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="G78">
-        <v>89.1</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H78">
         <v>37.9</v>
@@ -4638,8 +4571,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
         <v>30</v>
       </c>
       <c r="B79" t="s">
@@ -4652,7 +4585,7 @@
         <v>73.2</v>
       </c>
       <c r="F79">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G79">
         <v>62.9</v>
@@ -4667,8 +4600,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
         <v>30</v>
       </c>
       <c r="B80" t="s">
@@ -4681,10 +4614,10 @@
         <v>56.8</v>
       </c>
       <c r="F80">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G80">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H80">
         <v>47.1</v>
@@ -4696,8 +4629,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
         <v>30</v>
       </c>
       <c r="B81" t="s">
@@ -4710,7 +4643,7 @@
         <v>49.4</v>
       </c>
       <c r="F81">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G81">
         <v>83.5</v>
@@ -4725,8 +4658,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
         <v>30</v>
       </c>
       <c r="B82" t="s">
@@ -4739,7 +4672,7 @@
         <v>44.2</v>
       </c>
       <c r="F82">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G82">
         <v>92</v>
@@ -4754,8 +4687,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
         <v>30</v>
       </c>
       <c r="B83" t="s">
@@ -4771,7 +4704,7 @@
         <v>86.7</v>
       </c>
       <c r="G83">
-        <v>94.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H83">
         <v>44</v>
@@ -4783,8 +4716,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
         <v>30</v>
       </c>
       <c r="B84" t="s">
@@ -4800,7 +4733,7 @@
         <v>82.2</v>
       </c>
       <c r="G84">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="H84">
         <v>47.3</v>
@@ -4812,8 +4745,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
         <v>30</v>
       </c>
       <c r="B85" t="s">
@@ -4832,7 +4765,7 @@
         <v>88.3</v>
       </c>
       <c r="H85">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4841,8 +4774,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
         <v>30</v>
       </c>
       <c r="B86" t="s">
@@ -4870,8 +4803,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
         <v>30</v>
       </c>
       <c r="B87" t="s">
@@ -4884,7 +4817,7 @@
         <v>52.6</v>
       </c>
       <c r="F87">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G87">
         <v>90.5</v>
@@ -4899,8 +4832,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
         <v>30</v>
       </c>
       <c r="B88" t="s">
@@ -4916,7 +4849,7 @@
         <v>80.3</v>
       </c>
       <c r="G88">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H88">
         <v>52.8</v>
@@ -4928,8 +4861,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
         <v>30</v>
       </c>
       <c r="B89" t="s">
@@ -4942,10 +4875,10 @@
         <v>51.3</v>
       </c>
       <c r="F89">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="G89">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H89">
         <v>52.5</v>
@@ -4957,8 +4890,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
         <v>30</v>
       </c>
       <c r="B90" t="s">
@@ -4971,10 +4904,10 @@
         <v>57.3</v>
       </c>
       <c r="F90">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G90">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="H90">
         <v>50.9</v>
@@ -4986,8 +4919,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
         <v>30</v>
       </c>
       <c r="B91" t="s">
@@ -5003,7 +4936,7 @@
         <v>87.7</v>
       </c>
       <c r="G91">
-        <v>84.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H91">
         <v>47.6</v>
@@ -5015,8 +4948,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
         <v>30</v>
       </c>
       <c r="B92" t="s">
@@ -5029,10 +4962,10 @@
         <v>51.2</v>
       </c>
       <c r="F92">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G92">
-        <v>93.4</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H92">
         <v>49.1</v>
@@ -5044,8 +4977,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
         <v>30</v>
       </c>
       <c r="B93" t="s">
@@ -5058,7 +4991,7 @@
         <v>46</v>
       </c>
       <c r="F93">
-        <v>93.4</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G93">
         <v>87.5</v>
@@ -5073,8 +5006,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
         <v>30</v>
       </c>
       <c r="B94" t="s">
@@ -5084,7 +5017,7 @@
         <v>545</v>
       </c>
       <c r="E94">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="F94">
         <v>100</v>
@@ -5102,8 +5035,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
         <v>30</v>
       </c>
       <c r="B95" t="s">
@@ -5131,8 +5064,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
         <v>30</v>
       </c>
       <c r="B96" t="s">
@@ -5145,7 +5078,7 @@
         <v>42.7</v>
       </c>
       <c r="F96">
-        <v>97.1</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G96">
         <v>92</v>
@@ -5160,8 +5093,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
         <v>30</v>
       </c>
       <c r="B97" t="s">
@@ -5174,7 +5107,7 @@
         <v>46.7</v>
       </c>
       <c r="F97">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G97">
         <v>93.2</v>
@@ -5189,8 +5122,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
         <v>30</v>
       </c>
       <c r="B98" t="s">
@@ -5203,10 +5136,10 @@
         <v>49.2</v>
       </c>
       <c r="F98">
-        <v>84.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G98">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H98">
         <v>45.2</v>
@@ -5218,8 +5151,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
         <v>30</v>
       </c>
       <c r="B99" t="s">
@@ -5232,7 +5165,7 @@
         <v>50.1</v>
       </c>
       <c r="F99">
-        <v>89.1</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G99">
         <v>87.5</v>
@@ -5247,8 +5180,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
         <v>30</v>
       </c>
       <c r="B100" t="s">
@@ -5264,7 +5197,7 @@
         <v>76</v>
       </c>
       <c r="G100">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H100">
         <v>51.4</v>
@@ -5276,8 +5209,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:10">
+      <c r="A101" t="s">
         <v>30</v>
       </c>
       <c r="B101" t="s">
@@ -5293,7 +5226,7 @@
         <v>84.8</v>
       </c>
       <c r="G101">
-        <v>90.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="H101">
         <v>54.9</v>
@@ -5305,8 +5238,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:10">
+      <c r="A102" t="s">
         <v>31</v>
       </c>
       <c r="B102" t="s">
@@ -5322,7 +5255,7 @@
         <v>80.2</v>
       </c>
       <c r="G102">
-        <v>91.4</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="H102">
         <v>41</v>
@@ -5334,8 +5267,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
         <v>31</v>
       </c>
       <c r="B103" t="s">
@@ -5363,8 +5296,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
         <v>31</v>
       </c>
       <c r="B104" t="s">
@@ -5380,7 +5313,7 @@
         <v>86.2</v>
       </c>
       <c r="G104">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H104">
         <v>45.8</v>
@@ -5392,8 +5325,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:10">
+      <c r="A105" t="s">
         <v>31</v>
       </c>
       <c r="B105" t="s">
@@ -5406,7 +5339,7 @@
         <v>50.7</v>
       </c>
       <c r="F105">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G105">
         <v>90.2</v>
@@ -5421,8 +5354,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" t="s">
         <v>31</v>
       </c>
       <c r="B106" t="s">
@@ -5450,8 +5383,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:10">
+      <c r="A107" t="s">
         <v>31</v>
       </c>
       <c r="B107" t="s">
@@ -5461,16 +5394,16 @@
         <v>557</v>
       </c>
       <c r="E107">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="F107">
-        <v>96.6</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G107">
         <v>91.8</v>
       </c>
       <c r="H107">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -5479,8 +5412,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:10">
+      <c r="A108" t="s">
         <v>31</v>
       </c>
       <c r="B108" t="s">
@@ -5499,7 +5432,7 @@
         <v>76.7</v>
       </c>
       <c r="H108">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -5508,8 +5441,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:10">
+      <c r="A109" t="s">
         <v>31</v>
       </c>
       <c r="B109" t="s">
@@ -5522,10 +5455,10 @@
         <v>41</v>
       </c>
       <c r="F109">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G109">
-        <v>88.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H109">
         <v>51.8</v>
@@ -5537,8 +5470,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:10">
+      <c r="A110" t="s">
         <v>31</v>
       </c>
       <c r="B110" t="s">
@@ -5551,10 +5484,10 @@
         <v>56.6</v>
       </c>
       <c r="F110">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G110">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H110">
         <v>51.7</v>
@@ -5566,8 +5499,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:10">
+      <c r="A111" t="s">
         <v>31</v>
       </c>
       <c r="B111" t="s">
@@ -5583,10 +5516,10 @@
         <v>100</v>
       </c>
       <c r="G111">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="H111">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -5595,8 +5528,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:10">
+      <c r="A112" t="s">
         <v>31</v>
       </c>
       <c r="B112" t="s">
@@ -5624,8 +5557,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:10">
+      <c r="A113" t="s">
         <v>31</v>
       </c>
       <c r="B113" t="s">
@@ -5653,8 +5586,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" t="s">
         <v>31</v>
       </c>
       <c r="B114" t="s">
@@ -5667,7 +5600,7 @@
         <v>48.4</v>
       </c>
       <c r="F114">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G114">
         <v>91.8</v>
@@ -5682,8 +5615,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:10">
+      <c r="A115" t="s">
         <v>31</v>
       </c>
       <c r="B115" t="s">
@@ -5696,7 +5629,7 @@
         <v>46.5</v>
       </c>
       <c r="F115">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G115">
         <v>83.2</v>
@@ -5711,8 +5644,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
         <v>31</v>
       </c>
       <c r="B116" t="s">
@@ -5740,8 +5673,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:10">
+      <c r="A117" t="s">
         <v>31</v>
       </c>
       <c r="B117" t="s">
@@ -5754,7 +5687,7 @@
         <v>42.6</v>
       </c>
       <c r="F117">
-        <v>83.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="G117">
         <v>93.5</v>
@@ -5769,8 +5702,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:10">
+      <c r="A118" t="s">
         <v>31</v>
       </c>
       <c r="B118" t="s">
@@ -5798,8 +5731,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
         <v>31</v>
       </c>
       <c r="B119" t="s">
@@ -5827,8 +5760,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:10">
+      <c r="A120" t="s">
         <v>31</v>
       </c>
       <c r="B120" t="s">
@@ -5841,7 +5774,7 @@
         <v>54.8</v>
       </c>
       <c r="F120">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G120">
         <v>76.8</v>
@@ -5856,8 +5789,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:10">
+      <c r="A121" t="s">
         <v>31</v>
       </c>
       <c r="B121" t="s">
@@ -5870,7 +5803,7 @@
         <v>45.4</v>
       </c>
       <c r="F121">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="G121">
         <v>85.8</v>
@@ -5885,8 +5818,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:10">
+      <c r="A122" t="s">
         <v>31</v>
       </c>
       <c r="B122" t="s">
@@ -5899,10 +5832,10 @@
         <v>45.1</v>
       </c>
       <c r="F122">
-        <v>73.900000000000006</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G122">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H122">
         <v>52.7</v>
@@ -5914,8 +5847,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:10">
+      <c r="A123" t="s">
         <v>31</v>
       </c>
       <c r="B123" t="s">
@@ -5931,7 +5864,7 @@
         <v>82.7</v>
       </c>
       <c r="G123">
-        <v>84.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H123">
         <v>48.2</v>
@@ -5943,8 +5876,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:10">
+      <c r="A124" t="s">
         <v>31</v>
       </c>
       <c r="B124" t="s">
@@ -5972,8 +5905,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
         <v>31</v>
       </c>
       <c r="B125" t="s">
@@ -5986,7 +5919,7 @@
         <v>53.1</v>
       </c>
       <c r="F125">
-        <v>71.900000000000006</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G125">
         <v>85.7</v>
@@ -6001,8 +5934,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
         <v>31</v>
       </c>
       <c r="B126" t="s">
@@ -6018,7 +5951,7 @@
         <v>73</v>
       </c>
       <c r="G126">
-        <v>84.4</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H126">
         <v>48.8</v>
@@ -6030,8 +5963,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
         <v>31</v>
       </c>
       <c r="B127" t="s">
@@ -6059,8 +5992,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
         <v>31</v>
       </c>
       <c r="B128" t="s">
@@ -6076,7 +6009,7 @@
         <v>91.5</v>
       </c>
       <c r="G128">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="H128">
         <v>38.5</v>
@@ -6088,8 +6021,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
         <v>31</v>
       </c>
       <c r="B129" t="s">
@@ -6105,7 +6038,7 @@
         <v>74.8</v>
       </c>
       <c r="G129">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H129">
         <v>47.4</v>
@@ -6117,8 +6050,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
         <v>31</v>
       </c>
       <c r="B130" t="s">
@@ -6134,7 +6067,7 @@
         <v>89.7</v>
       </c>
       <c r="G130">
-        <v>96.6</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H130">
         <v>45.3</v>
@@ -6146,8 +6079,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
         <v>31</v>
       </c>
       <c r="B131" t="s">
@@ -6163,7 +6096,7 @@
         <v>76.7</v>
       </c>
       <c r="G131">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H131">
         <v>37.5</v>
@@ -6175,8 +6108,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
         <v>31</v>
       </c>
       <c r="B132" t="s">
@@ -6189,13 +6122,13 @@
         <v>45.2</v>
       </c>
       <c r="F132">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G132">
         <v>94.3</v>
       </c>
       <c r="H132">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -6204,8 +6137,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
         <v>31</v>
       </c>
       <c r="B133" t="s">
@@ -6218,10 +6151,10 @@
         <v>48.8</v>
       </c>
       <c r="F133">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G133">
-        <v>83.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H133">
         <v>44.3</v>
@@ -6233,8 +6166,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
         <v>31</v>
       </c>
       <c r="B134" t="s">
@@ -6262,8 +6195,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
         <v>31</v>
       </c>
       <c r="B135" t="s">
@@ -6291,8 +6224,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
         <v>31</v>
       </c>
       <c r="B136" t="s">
@@ -6302,13 +6235,13 @@
         <v>538</v>
       </c>
       <c r="E136">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="F136">
         <v>84.7</v>
       </c>
       <c r="G136">
-        <v>95.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H136">
         <v>46.3</v>
@@ -6320,8 +6253,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
         <v>31</v>
       </c>
       <c r="B137" t="s">
@@ -6337,7 +6270,7 @@
         <v>93.2</v>
       </c>
       <c r="G137">
-        <v>91.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="H137">
         <v>32.9</v>
@@ -6349,8 +6282,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
         <v>31</v>
       </c>
       <c r="B138" t="s">
@@ -6363,7 +6296,7 @@
         <v>42.8</v>
       </c>
       <c r="F138">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G138">
         <v>93.8</v>
@@ -6378,8 +6311,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
         <v>31</v>
       </c>
       <c r="B139" t="s">
@@ -6395,7 +6328,7 @@
         <v>80</v>
       </c>
       <c r="G139">
-        <v>93.4</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H139">
         <v>51.4</v>
@@ -6407,8 +6340,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
         <v>31</v>
       </c>
       <c r="B140" t="s">
@@ -6421,7 +6354,7 @@
         <v>44.9</v>
       </c>
       <c r="F140">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G140">
         <v>89.3</v>
@@ -6436,8 +6369,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
         <v>31</v>
       </c>
       <c r="B141" t="s">
@@ -6465,8 +6398,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
         <v>31</v>
       </c>
       <c r="B142" t="s">
@@ -6476,7 +6409,7 @@
         <v>536</v>
       </c>
       <c r="E142">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="F142">
         <v>100</v>
@@ -6494,8 +6427,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
         <v>31</v>
       </c>
       <c r="B143" t="s">
@@ -6508,7 +6441,7 @@
         <v>44.2</v>
       </c>
       <c r="F143">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G143">
         <v>85</v>
@@ -6523,8 +6456,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
         <v>31</v>
       </c>
       <c r="B144" t="s">
@@ -6552,8 +6485,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
         <v>31</v>
       </c>
       <c r="B145" t="s">
@@ -6569,7 +6502,7 @@
         <v>69.8</v>
       </c>
       <c r="G145">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H145">
         <v>44.5</v>
@@ -6581,8 +6514,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
         <v>31</v>
       </c>
       <c r="B146" t="s">
@@ -6598,7 +6531,7 @@
         <v>96.2</v>
       </c>
       <c r="G146">
-        <v>92.1</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="H146">
         <v>40.4</v>
@@ -6610,8 +6543,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
         <v>31</v>
       </c>
       <c r="B147" t="s">
@@ -6621,16 +6554,16 @@
         <v>539</v>
       </c>
       <c r="E147">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="F147">
-        <v>97.9</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="G147">
-        <v>92.1</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="H147">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -6639,8 +6572,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
         <v>31</v>
       </c>
       <c r="B148" t="s">
@@ -6659,7 +6592,7 @@
         <v>90.3</v>
       </c>
       <c r="H148">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -6668,8 +6601,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
         <v>31</v>
       </c>
       <c r="B149" t="s">
@@ -6697,8 +6630,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
         <v>31</v>
       </c>
       <c r="B150" t="s">
@@ -6726,8 +6659,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
         <v>31</v>
       </c>
       <c r="B151" t="s">
@@ -6755,8 +6688,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
         <v>32</v>
       </c>
       <c r="B152" t="s">
@@ -6784,8 +6717,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
         <v>32</v>
       </c>
       <c r="B153" t="s">
@@ -6798,10 +6731,10 @@
         <v>38.4</v>
       </c>
       <c r="F153">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G153">
-        <v>94.9</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H153">
         <v>42.4</v>
@@ -6813,8 +6746,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
         <v>32</v>
       </c>
       <c r="B154" t="s">
@@ -6824,7 +6757,7 @@
         <v>539</v>
       </c>
       <c r="E154">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F154">
         <v>100</v>
@@ -6842,8 +6775,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
         <v>32</v>
       </c>
       <c r="B155" t="s">
@@ -6871,8 +6804,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
         <v>32</v>
       </c>
       <c r="B156" t="s">
@@ -6885,10 +6818,10 @@
         <v>38.6</v>
       </c>
       <c r="F156">
-        <v>76.900000000000006</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G156">
-        <v>87.6</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="H156">
         <v>43.3</v>
@@ -6900,8 +6833,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
         <v>32</v>
       </c>
       <c r="B157" t="s">
@@ -6929,8 +6862,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
         <v>32</v>
       </c>
       <c r="B158" t="s">
@@ -6943,7 +6876,7 @@
         <v>54.5</v>
       </c>
       <c r="F158">
-        <v>68.900000000000006</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G158">
         <v>62.3</v>
@@ -6958,8 +6891,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
         <v>32</v>
       </c>
       <c r="B159" t="s">
@@ -6975,7 +6908,7 @@
         <v>100</v>
       </c>
       <c r="G159">
-        <v>91.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="H159">
         <v>30.2</v>
@@ -6987,8 +6920,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
         <v>32</v>
       </c>
       <c r="B160" t="s">
@@ -7004,7 +6937,7 @@
         <v>78</v>
       </c>
       <c r="G160">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="H160">
         <v>38.1</v>
@@ -7016,8 +6949,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
         <v>32</v>
       </c>
       <c r="B161" t="s">
@@ -7030,13 +6963,13 @@
         <v>40.4</v>
       </c>
       <c r="F161">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G161">
         <v>86.5</v>
       </c>
       <c r="H161">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -7045,8 +6978,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
         <v>32</v>
       </c>
       <c r="B162" t="s">
@@ -7074,8 +7007,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
         <v>32</v>
       </c>
       <c r="B163" t="s">
@@ -7091,10 +7024,10 @@
         <v>84.5</v>
       </c>
       <c r="G163">
-        <v>97.9</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="H163">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -7103,8 +7036,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
         <v>32</v>
       </c>
       <c r="B164" t="s">
@@ -7120,10 +7053,10 @@
         <v>94</v>
       </c>
       <c r="G164">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H164">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -7132,8 +7065,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
         <v>32</v>
       </c>
       <c r="B165" t="s">
@@ -7161,8 +7094,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
         <v>32</v>
       </c>
       <c r="B166" t="s">
@@ -7175,10 +7108,10 @@
         <v>47.3</v>
       </c>
       <c r="F166">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G166">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="H166">
         <v>35.1</v>
@@ -7190,8 +7123,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
         <v>32</v>
       </c>
       <c r="B167" t="s">
@@ -7219,8 +7152,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
         <v>32</v>
       </c>
       <c r="B168" t="s">
@@ -7236,7 +7169,7 @@
         <v>67.3</v>
       </c>
       <c r="G168">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H168">
         <v>53.2</v>
@@ -7248,8 +7181,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
         <v>32</v>
       </c>
       <c r="B169" t="s">
@@ -7265,7 +7198,7 @@
         <v>68.5</v>
       </c>
       <c r="G169">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H169">
         <v>42.1</v>
@@ -7277,8 +7210,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
         <v>32</v>
       </c>
       <c r="B170" t="s">
@@ -7294,10 +7227,10 @@
         <v>83.3</v>
       </c>
       <c r="G170">
-        <v>77.599999999999994</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="H170">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -7306,8 +7239,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
         <v>32</v>
       </c>
       <c r="B171" t="s">
@@ -7320,10 +7253,10 @@
         <v>43.6</v>
       </c>
       <c r="F171">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G171">
-        <v>83.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H171">
         <v>36.1</v>
@@ -7335,8 +7268,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
         <v>32</v>
       </c>
       <c r="B172" t="s">
@@ -7364,8 +7297,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
         <v>32</v>
       </c>
       <c r="B173" t="s">
@@ -7381,7 +7314,7 @@
         <v>75.7</v>
       </c>
       <c r="G173">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="H173">
         <v>46</v>
@@ -7393,8 +7326,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
         <v>32</v>
       </c>
       <c r="B174" t="s">
@@ -7404,13 +7337,13 @@
         <v>553</v>
       </c>
       <c r="E174">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="F174">
         <v>64.7</v>
       </c>
       <c r="G174">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H174">
         <v>17.3</v>
@@ -7422,8 +7355,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
         <v>32</v>
       </c>
       <c r="B175" t="s">
@@ -7451,8 +7384,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
         <v>32</v>
       </c>
       <c r="B176" t="s">
@@ -7465,10 +7398,10 @@
         <v>53.9</v>
       </c>
       <c r="F176">
-        <v>71.099999999999994</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G176">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H176">
         <v>42.4</v>
@@ -7480,8 +7413,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
         <v>32</v>
       </c>
       <c r="B177" t="s">
@@ -7491,13 +7424,13 @@
         <v>544</v>
       </c>
       <c r="E177">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="F177">
         <v>81.2</v>
       </c>
       <c r="G177">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="H177">
         <v>43.6</v>
@@ -7509,8 +7442,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
         <v>32</v>
       </c>
       <c r="B178" t="s">
@@ -7523,7 +7456,7 @@
         <v>35.4</v>
       </c>
       <c r="F178">
-        <v>98.6</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G178">
         <v>86.8</v>
@@ -7538,8 +7471,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
         <v>32</v>
       </c>
       <c r="B179" t="s">
@@ -7552,7 +7485,7 @@
         <v>44.7</v>
       </c>
       <c r="F179">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G179">
         <v>72.5</v>
@@ -7567,8 +7500,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
         <v>32</v>
       </c>
       <c r="B180" t="s">
@@ -7596,8 +7529,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
         <v>32</v>
       </c>
       <c r="B181" t="s">
@@ -7607,7 +7540,7 @@
         <v>545</v>
       </c>
       <c r="E181">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="F181">
         <v>79.7</v>
@@ -7625,8 +7558,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
         <v>32</v>
       </c>
       <c r="B182" t="s">
@@ -7636,13 +7569,13 @@
         <v>545</v>
       </c>
       <c r="E182">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="F182">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="G182">
-        <v>97.9</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="H182">
         <v>43.3</v>
@@ -7654,8 +7587,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
         <v>32</v>
       </c>
       <c r="B183" t="s">
@@ -7665,7 +7598,7 @@
         <v>548</v>
       </c>
       <c r="E183">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F183">
         <v>91.7</v>
@@ -7674,7 +7607,7 @@
         <v>94</v>
       </c>
       <c r="H183">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -7683,8 +7616,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
         <v>32</v>
       </c>
       <c r="B184" t="s">
@@ -7700,7 +7633,7 @@
         <v>80.3</v>
       </c>
       <c r="G184">
-        <v>92.9</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H184">
         <v>46.5</v>
@@ -7712,8 +7645,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
         <v>32</v>
       </c>
       <c r="B185" t="s">
@@ -7726,13 +7659,13 @@
         <v>42.8</v>
       </c>
       <c r="F185">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G185">
         <v>86.7</v>
       </c>
       <c r="H185">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -7741,8 +7674,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
         <v>32</v>
       </c>
       <c r="B186" t="s">
@@ -7755,10 +7688,10 @@
         <v>44.5</v>
       </c>
       <c r="F186">
-        <v>84.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G186">
-        <v>93.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H186">
         <v>35.9</v>
@@ -7770,8 +7703,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
         <v>32</v>
       </c>
       <c r="B187" t="s">
@@ -7781,13 +7714,13 @@
         <v>536</v>
       </c>
       <c r="E187">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="F187">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G187">
-        <v>89.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="H187">
         <v>41.9</v>
@@ -7799,8 +7732,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
         <v>32</v>
       </c>
       <c r="B188" t="s">
@@ -7816,7 +7749,7 @@
         <v>72</v>
       </c>
       <c r="G188">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H188">
         <v>42.6</v>
@@ -7828,8 +7761,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
         <v>32</v>
       </c>
       <c r="B189" t="s">
@@ -7839,13 +7772,13 @@
         <v>568</v>
       </c>
       <c r="E189">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="F189">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G189">
-        <v>89.1</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H189">
         <v>38.1</v>
@@ -7857,8 +7790,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
+    <row r="190" spans="1:10">
+      <c r="A190" t="s">
         <v>32</v>
       </c>
       <c r="B190" t="s">
@@ -7874,7 +7807,7 @@
         <v>74.3</v>
       </c>
       <c r="G190">
-        <v>84.9</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="H190">
         <v>42.4</v>
@@ -7886,8 +7819,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
+    <row r="191" spans="1:10">
+      <c r="A191" t="s">
         <v>32</v>
       </c>
       <c r="B191" t="s">
@@ -7915,8 +7848,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
+    <row r="192" spans="1:10">
+      <c r="A192" t="s">
         <v>32</v>
       </c>
       <c r="B192" t="s">
@@ -7935,7 +7868,7 @@
         <v>93.2</v>
       </c>
       <c r="H192">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -7944,8 +7877,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
+    <row r="193" spans="1:10">
+      <c r="A193" t="s">
         <v>32</v>
       </c>
       <c r="B193" t="s">
@@ -7973,8 +7906,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
         <v>32</v>
       </c>
       <c r="B194" t="s">
@@ -7993,7 +7926,7 @@
         <v>97</v>
       </c>
       <c r="H194">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -8002,8 +7935,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
         <v>32</v>
       </c>
       <c r="B195" t="s">
@@ -8019,7 +7952,7 @@
         <v>75.7</v>
       </c>
       <c r="G195">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H195">
         <v>43.6</v>
@@ -8031,8 +7964,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
+    <row r="196" spans="1:10">
+      <c r="A196" t="s">
         <v>32</v>
       </c>
       <c r="B196" t="s">
@@ -8048,7 +7981,7 @@
         <v>83.5</v>
       </c>
       <c r="G196">
-        <v>94.1</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H196">
         <v>41.7</v>
@@ -8060,8 +7993,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
+    <row r="197" spans="1:10">
+      <c r="A197" t="s">
         <v>32</v>
       </c>
       <c r="B197" t="s">
@@ -8089,8 +8022,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
         <v>32</v>
       </c>
       <c r="B198" t="s">
@@ -8103,7 +8036,7 @@
         <v>46</v>
       </c>
       <c r="F198">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G198">
         <v>84.7</v>
@@ -8118,8 +8051,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
+    <row r="199" spans="1:10">
+      <c r="A199" t="s">
         <v>32</v>
       </c>
       <c r="B199" t="s">
@@ -8147,8 +8080,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
+    <row r="200" spans="1:10">
+      <c r="A200" t="s">
         <v>32</v>
       </c>
       <c r="B200" t="s">
@@ -8164,7 +8097,7 @@
         <v>68.8</v>
       </c>
       <c r="G200">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="H200">
         <v>47.3</v>
@@ -8176,8 +8109,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+    <row r="201" spans="1:10">
+      <c r="A201" t="s">
         <v>32</v>
       </c>
       <c r="B201" t="s">
@@ -8205,8 +8138,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
+    <row r="202" spans="1:10">
+      <c r="A202" t="s">
         <v>32</v>
       </c>
       <c r="B202" t="s">
@@ -8234,8 +8167,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
         <v>33</v>
       </c>
       <c r="B203" t="s">
@@ -8251,10 +8184,10 @@
         <v>70</v>
       </c>
       <c r="G203">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="H203">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -8263,8 +8196,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+    <row r="204" spans="1:10">
+      <c r="A204" t="s">
         <v>33</v>
       </c>
       <c r="B204" t="s">
@@ -8274,13 +8207,13 @@
         <v>552</v>
       </c>
       <c r="E204">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="F204">
         <v>76.5</v>
       </c>
       <c r="G204">
-        <v>89.9</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H204">
         <v>34</v>
@@ -8292,8 +8225,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
+    <row r="205" spans="1:10">
+      <c r="A205" t="s">
         <v>33</v>
       </c>
       <c r="B205" t="s">
@@ -8309,7 +8242,7 @@
         <v>71</v>
       </c>
       <c r="G205">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H205">
         <v>44</v>
@@ -8321,8 +8254,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
+    <row r="206" spans="1:10">
+      <c r="A206" t="s">
         <v>33</v>
       </c>
       <c r="B206" t="s">
@@ -8335,7 +8268,7 @@
         <v>36.4</v>
       </c>
       <c r="F206">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="G206">
         <v>95.8</v>
@@ -8350,8 +8283,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+    <row r="207" spans="1:10">
+      <c r="A207" t="s">
         <v>33</v>
       </c>
       <c r="B207" t="s">
@@ -8367,7 +8300,7 @@
         <v>97.5</v>
       </c>
       <c r="G207">
-        <v>92.6</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="H207">
         <v>26.3</v>
@@ -8379,8 +8312,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
+    <row r="208" spans="1:10">
+      <c r="A208" t="s">
         <v>33</v>
       </c>
       <c r="B208" t="s">
@@ -8408,8 +8341,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
+    <row r="209" spans="1:10">
+      <c r="A209" t="s">
         <v>33</v>
       </c>
       <c r="B209" t="s">
@@ -8437,8 +8370,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
+    <row r="210" spans="1:10">
+      <c r="A210" t="s">
         <v>33</v>
       </c>
       <c r="B210" t="s">
@@ -8466,8 +8399,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
+    <row r="211" spans="1:10">
+      <c r="A211" t="s">
         <v>33</v>
       </c>
       <c r="B211" t="s">
@@ -8495,8 +8428,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
+    <row r="212" spans="1:10">
+      <c r="A212" t="s">
         <v>33</v>
       </c>
       <c r="B212" t="s">
@@ -8509,7 +8442,7 @@
         <v>36.9</v>
       </c>
       <c r="F212">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G212">
         <v>88</v>
@@ -8524,8 +8457,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
+    <row r="213" spans="1:10">
+      <c r="A213" t="s">
         <v>33</v>
       </c>
       <c r="B213" t="s">
@@ -8553,8 +8486,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
+    <row r="214" spans="1:10">
+      <c r="A214" t="s">
         <v>33</v>
       </c>
       <c r="B214" t="s">
@@ -8567,10 +8500,10 @@
         <v>46.5</v>
       </c>
       <c r="F214">
-        <v>73.900000000000006</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G214">
-        <v>89.9</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H214">
         <v>35.5</v>
@@ -8582,8 +8515,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
+    <row r="215" spans="1:10">
+      <c r="A215" t="s">
         <v>33</v>
       </c>
       <c r="B215" t="s">
@@ -8602,7 +8535,7 @@
         <v>67.3</v>
       </c>
       <c r="H215">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="I215">
         <v>0</v>
@@ -8611,8 +8544,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
+    <row r="216" spans="1:10">
+      <c r="A216" t="s">
         <v>33</v>
       </c>
       <c r="B216" t="s">
@@ -8625,7 +8558,7 @@
         <v>63.3</v>
       </c>
       <c r="F216">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G216">
         <v>51.4</v>
@@ -8640,8 +8573,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
+    <row r="217" spans="1:10">
+      <c r="A217" t="s">
         <v>33</v>
       </c>
       <c r="B217" t="s">
@@ -8654,7 +8587,7 @@
         <v>30</v>
       </c>
       <c r="F217">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G217">
         <v>99.5</v>
@@ -8669,8 +8602,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
+    <row r="218" spans="1:10">
+      <c r="A218" t="s">
         <v>33</v>
       </c>
       <c r="B218" t="s">
@@ -8698,8 +8631,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
+    <row r="219" spans="1:10">
+      <c r="A219" t="s">
         <v>33</v>
       </c>
       <c r="B219" t="s">
@@ -8727,8 +8660,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
+    <row r="220" spans="1:10">
+      <c r="A220" t="s">
         <v>33</v>
       </c>
       <c r="B220" t="s">
@@ -8744,7 +8677,7 @@
         <v>64</v>
       </c>
       <c r="G220">
-        <v>68.099999999999994</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="H220">
         <v>41.5</v>
@@ -8756,8 +8689,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
+    <row r="221" spans="1:10">
+      <c r="A221" t="s">
         <v>33</v>
       </c>
       <c r="B221" t="s">
@@ -8767,7 +8700,7 @@
         <v>539</v>
       </c>
       <c r="E221">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="F221">
         <v>77.7</v>
@@ -8785,8 +8718,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
+    <row r="222" spans="1:10">
+      <c r="A222" t="s">
         <v>33</v>
       </c>
       <c r="B222" t="s">
@@ -8799,10 +8732,10 @@
         <v>25.2</v>
       </c>
       <c r="F222">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G222">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H222">
         <v>25.7</v>
@@ -8814,8 +8747,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+    <row r="223" spans="1:10">
+      <c r="A223" t="s">
         <v>33</v>
       </c>
       <c r="B223" t="s">
@@ -8843,8 +8776,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
+    <row r="224" spans="1:10">
+      <c r="A224" t="s">
         <v>33</v>
       </c>
       <c r="B224" t="s">
@@ -8857,7 +8790,7 @@
         <v>26.8</v>
       </c>
       <c r="F224">
-        <v>91.4</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G224">
         <v>99.5</v>
@@ -8872,8 +8805,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
+    <row r="225" spans="1:10">
+      <c r="A225" t="s">
         <v>33</v>
       </c>
       <c r="B225" t="s">
@@ -8892,7 +8825,7 @@
         <v>57.2</v>
       </c>
       <c r="H225">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -8901,8 +8834,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
+    <row r="226" spans="1:10">
+      <c r="A226" t="s">
         <v>33</v>
       </c>
       <c r="B226" t="s">
@@ -8918,7 +8851,7 @@
         <v>61.8</v>
       </c>
       <c r="G226">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="H226">
         <v>32.6</v>
@@ -8930,8 +8863,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
+    <row r="227" spans="1:10">
+      <c r="A227" t="s">
         <v>33</v>
       </c>
       <c r="B227" t="s">
@@ -8959,8 +8892,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+    <row r="228" spans="1:10">
+      <c r="A228" t="s">
         <v>33</v>
       </c>
       <c r="B228" t="s">
@@ -8988,8 +8921,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
+    <row r="229" spans="1:10">
+      <c r="A229" t="s">
         <v>33</v>
       </c>
       <c r="B229" t="s">
@@ -9002,10 +8935,10 @@
         <v>36.1</v>
       </c>
       <c r="F229">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G229">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H229">
         <v>39.1</v>
@@ -9017,8 +8950,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
+    <row r="230" spans="1:10">
+      <c r="A230" t="s">
         <v>33</v>
       </c>
       <c r="B230" t="s">
@@ -9046,8 +8979,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+    <row r="231" spans="1:10">
+      <c r="A231" t="s">
         <v>33</v>
       </c>
       <c r="B231" t="s">
@@ -9063,7 +8996,7 @@
         <v>87</v>
       </c>
       <c r="G231">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H231">
         <v>27.7</v>
@@ -9075,8 +9008,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
+    <row r="232" spans="1:10">
+      <c r="A232" t="s">
         <v>33</v>
       </c>
       <c r="B232" t="s">
@@ -9089,10 +9022,10 @@
         <v>31.8</v>
       </c>
       <c r="F232">
-        <v>84.1</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G232">
-        <v>90.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="H232">
         <v>30.2</v>
@@ -9104,8 +9037,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
+    <row r="233" spans="1:10">
+      <c r="A233" t="s">
         <v>33</v>
       </c>
       <c r="B233" t="s">
@@ -9115,7 +9048,7 @@
         <v>573</v>
       </c>
       <c r="E233">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="F233">
         <v>74.7</v>
@@ -9133,8 +9066,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
+    <row r="234" spans="1:10">
+      <c r="A234" t="s">
         <v>33</v>
       </c>
       <c r="B234" t="s">
@@ -9147,10 +9080,10 @@
         <v>46.4</v>
       </c>
       <c r="F234">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G234">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H234">
         <v>29</v>
@@ -9162,8 +9095,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
+    <row r="235" spans="1:10">
+      <c r="A235" t="s">
         <v>33</v>
       </c>
       <c r="B235" t="s">
@@ -9179,7 +9112,7 @@
         <v>87.7</v>
       </c>
       <c r="G235">
-        <v>91.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="H235">
         <v>32.9</v>
@@ -9191,8 +9124,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
+    <row r="236" spans="1:10">
+      <c r="A236" t="s">
         <v>33</v>
       </c>
       <c r="B236" t="s">
@@ -9208,7 +9141,7 @@
         <v>80</v>
       </c>
       <c r="G236">
-        <v>96.1</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H236">
         <v>26.5</v>
@@ -9220,8 +9153,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
+    <row r="237" spans="1:10">
+      <c r="A237" t="s">
         <v>33</v>
       </c>
       <c r="B237" t="s">
@@ -9237,7 +9170,7 @@
         <v>77.7</v>
       </c>
       <c r="G237">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="H237">
         <v>35.1</v>
@@ -9249,8 +9182,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
+    <row r="238" spans="1:10">
+      <c r="A238" t="s">
         <v>33</v>
       </c>
       <c r="B238" t="s">
@@ -9263,7 +9196,7 @@
         <v>34.9</v>
       </c>
       <c r="F238">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G238">
         <v>90.5</v>
@@ -9278,8 +9211,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
+    <row r="239" spans="1:10">
+      <c r="A239" t="s">
         <v>33</v>
       </c>
       <c r="B239" t="s">
@@ -9292,13 +9225,13 @@
         <v>28.3</v>
       </c>
       <c r="F239">
-        <v>91.9</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G239">
-        <v>96.6</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H239">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -9307,8 +9240,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
+    <row r="240" spans="1:10">
+      <c r="A240" t="s">
         <v>33</v>
       </c>
       <c r="B240" t="s">
@@ -9336,8 +9269,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
+    <row r="241" spans="1:10">
+      <c r="A241" t="s">
         <v>33</v>
       </c>
       <c r="B241" t="s">
@@ -9365,8 +9298,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
+    <row r="242" spans="1:10">
+      <c r="A242" t="s">
         <v>33</v>
       </c>
       <c r="B242" t="s">
@@ -9394,8 +9327,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
+    <row r="243" spans="1:10">
+      <c r="A243" t="s">
         <v>33</v>
       </c>
       <c r="B243" t="s">
@@ -9405,10 +9338,10 @@
         <v>543</v>
       </c>
       <c r="E243">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="F243">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G243">
         <v>91</v>
@@ -9423,8 +9356,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
+    <row r="244" spans="1:10">
+      <c r="A244" t="s">
         <v>33</v>
       </c>
       <c r="B244" t="s">
@@ -9437,10 +9370,10 @@
         <v>47.7</v>
       </c>
       <c r="F244">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G244">
-        <v>85.4</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="H244">
         <v>30.2</v>
@@ -9452,8 +9385,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
+    <row r="245" spans="1:10">
+      <c r="A245" t="s">
         <v>33</v>
       </c>
       <c r="B245" t="s">
@@ -9481,8 +9414,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
+    <row r="246" spans="1:10">
+      <c r="A246" t="s">
         <v>33</v>
       </c>
       <c r="B246" t="s">
@@ -9510,8 +9443,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
+    <row r="247" spans="1:10">
+      <c r="A247" t="s">
         <v>33</v>
       </c>
       <c r="B247" t="s">
@@ -9524,7 +9457,7 @@
         <v>32.6</v>
       </c>
       <c r="F247">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G247">
         <v>92.3</v>
@@ -9539,8 +9472,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
+    <row r="248" spans="1:10">
+      <c r="A248" t="s">
         <v>33</v>
       </c>
       <c r="B248" t="s">
@@ -9568,8 +9501,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
+    <row r="249" spans="1:10">
+      <c r="A249" t="s">
         <v>33</v>
       </c>
       <c r="B249" t="s">
@@ -9588,7 +9521,7 @@
         <v>83.3</v>
       </c>
       <c r="H249">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -9597,8 +9530,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
+    <row r="250" spans="1:10">
+      <c r="A250" t="s">
         <v>33</v>
       </c>
       <c r="B250" t="s">
@@ -9608,7 +9541,7 @@
         <v>536</v>
       </c>
       <c r="E250">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="F250">
         <v>75.7</v>
@@ -9617,7 +9550,7 @@
         <v>85</v>
       </c>
       <c r="H250">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -9626,8 +9559,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
+    <row r="251" spans="1:10">
+      <c r="A251" t="s">
         <v>33</v>
       </c>
       <c r="B251" t="s">
@@ -9637,7 +9570,7 @@
         <v>543</v>
       </c>
       <c r="E251">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="F251">
         <v>92</v>
@@ -9655,8 +9588,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+    <row r="252" spans="1:10">
+      <c r="A252" t="s">
         <v>33</v>
       </c>
       <c r="B252" t="s">
@@ -9672,7 +9605,7 @@
         <v>64.2</v>
       </c>
       <c r="G252">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="H252">
         <v>45.8</v>
@@ -9684,8 +9617,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
+    <row r="253" spans="1:10">
+      <c r="A253" t="s">
         <v>33</v>
       </c>
       <c r="B253" t="s">
@@ -9695,10 +9628,10 @@
         <v>536</v>
       </c>
       <c r="E253">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="F253">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G253">
         <v>87.8</v>
@@ -9713,8 +9646,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
+    <row r="254" spans="1:10">
+      <c r="A254" t="s">
         <v>33</v>
       </c>
       <c r="B254" t="s">
@@ -9742,8 +9675,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
+    <row r="255" spans="1:10">
+      <c r="A255" t="s">
         <v>33</v>
       </c>
       <c r="B255" t="s">
@@ -9759,10 +9692,10 @@
         <v>80.8</v>
       </c>
       <c r="G255">
-        <v>92.9</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H255">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="I255">
         <v>0</v>
@@ -9771,8 +9704,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
+    <row r="256" spans="1:10">
+      <c r="A256" t="s">
         <v>33</v>
       </c>
       <c r="B256" t="s">
@@ -9782,7 +9715,7 @@
         <v>536</v>
       </c>
       <c r="E256">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="F256">
         <v>77.2</v>
@@ -9791,7 +9724,7 @@
         <v>84.7</v>
       </c>
       <c r="H256">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="I256">
         <v>0</v>
@@ -9800,8 +9733,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
+    <row r="257" spans="1:10">
+      <c r="A257" t="s">
         <v>33</v>
       </c>
       <c r="B257" t="s">
@@ -9814,13 +9747,13 @@
         <v>42.7</v>
       </c>
       <c r="F257">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G257">
         <v>86</v>
       </c>
       <c r="H257">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -9829,8 +9762,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
+    <row r="258" spans="1:10">
+      <c r="A258" t="s">
         <v>33</v>
       </c>
       <c r="B258" t="s">
@@ -9849,7 +9782,7 @@
         <v>91.3</v>
       </c>
       <c r="H258">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -9858,8 +9791,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
+    <row r="259" spans="1:10">
+      <c r="A259" t="s">
         <v>33</v>
       </c>
       <c r="B259" t="s">
@@ -9869,7 +9802,7 @@
         <v>43.6</v>
       </c>
       <c r="F259">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G259">
         <v>87.2</v>
@@ -9884,8 +9817,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
+    <row r="260" spans="1:10">
+      <c r="A260" t="s">
         <v>33</v>
       </c>
       <c r="B260" t="s">
@@ -9901,7 +9834,7 @@
         <v>83.2</v>
       </c>
       <c r="G260">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H260">
         <v>30.5</v>
@@ -9913,8 +9846,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
+    <row r="261" spans="1:10">
+      <c r="A261" t="s">
         <v>33</v>
       </c>
       <c r="B261" t="s">
@@ -9942,8 +9875,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
+    <row r="262" spans="1:10">
+      <c r="A262" t="s">
         <v>33</v>
       </c>
       <c r="B262" t="s">
@@ -9971,8 +9904,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
+    <row r="263" spans="1:10">
+      <c r="A263" t="s">
         <v>33</v>
       </c>
       <c r="B263" t="s">
@@ -9982,16 +9915,16 @@
         <v>562</v>
       </c>
       <c r="E263">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="F263">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="G263">
-        <v>83.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="H263">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -10000,8 +9933,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
+    <row r="264" spans="1:10">
+      <c r="A264" t="s">
         <v>33</v>
       </c>
       <c r="B264" t="s">
@@ -10014,10 +9947,10 @@
         <v>30.3</v>
       </c>
       <c r="F264">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G264">
-        <v>96.9</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H264">
         <v>30.5</v>
@@ -10029,8 +9962,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
+    <row r="265" spans="1:10">
+      <c r="A265" t="s">
         <v>33</v>
       </c>
       <c r="B265" t="s">
@@ -10040,13 +9973,13 @@
         <v>576</v>
       </c>
       <c r="E265">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="F265">
         <v>80.2</v>
       </c>
       <c r="G265">
-        <v>96.1</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H265">
         <v>28.2</v>
@@ -10058,8 +9991,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
+    <row r="266" spans="1:10">
+      <c r="A266" t="s">
         <v>33</v>
       </c>
       <c r="B266" t="s">
@@ -10075,7 +10008,7 @@
         <v>81</v>
       </c>
       <c r="G266">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="H266">
         <v>34.4</v>
@@ -10087,8 +10020,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
+    <row r="267" spans="1:10">
+      <c r="A267" t="s">
         <v>33</v>
       </c>
       <c r="B267" t="s">
@@ -10101,7 +10034,7 @@
         <v>29.9</v>
       </c>
       <c r="F267">
-        <v>83.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G267">
         <v>87.3</v>
@@ -10116,8 +10049,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
+    <row r="268" spans="1:10">
+      <c r="A268" t="s">
         <v>33</v>
       </c>
       <c r="B268" t="s">
@@ -10127,7 +10060,7 @@
         <v>544</v>
       </c>
       <c r="E268">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="F268">
         <v>67.2</v>
@@ -10145,8 +10078,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A269" s="3" t="s">
+    <row r="269" spans="1:10">
+      <c r="A269" t="s">
         <v>33</v>
       </c>
       <c r="B269" t="s">
@@ -10156,7 +10089,7 @@
         <v>545</v>
       </c>
       <c r="E269">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F269">
         <v>81.5</v>
@@ -10165,7 +10098,7 @@
         <v>97.3</v>
       </c>
       <c r="H269">
-        <v>40.200000000000003</v>
+        <v>40.2</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -10174,8 +10107,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A270" s="3" t="s">
+    <row r="270" spans="1:10">
+      <c r="A270" t="s">
         <v>33</v>
       </c>
       <c r="B270" t="s">
@@ -10203,8 +10136,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A271" s="3" t="s">
+    <row r="271" spans="1:10">
+      <c r="A271" t="s">
         <v>33</v>
       </c>
       <c r="B271" t="s">
@@ -10220,7 +10153,7 @@
         <v>74.7</v>
       </c>
       <c r="G271">
-        <v>86.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H271">
         <v>42.4</v>
@@ -10232,8 +10165,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A272" s="3" t="s">
+    <row r="272" spans="1:10">
+      <c r="A272" t="s">
         <v>33</v>
       </c>
       <c r="B272" t="s">
@@ -10243,13 +10176,13 @@
         <v>544</v>
       </c>
       <c r="E272">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="F272">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G272">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="H272">
         <v>38.5</v>
@@ -10261,8 +10194,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A273" s="3" t="s">
+    <row r="273" spans="1:10">
+      <c r="A273" t="s">
         <v>33</v>
       </c>
       <c r="B273" t="s">
@@ -10272,7 +10205,7 @@
         <v>544</v>
       </c>
       <c r="E273">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="F273">
         <v>75.3</v>
@@ -10290,8 +10223,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A274" s="3" t="s">
+    <row r="274" spans="1:10">
+      <c r="A274" t="s">
         <v>33</v>
       </c>
       <c r="B274" t="s">
@@ -10319,8 +10252,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A275" s="3" t="s">
+    <row r="275" spans="1:10">
+      <c r="A275" t="s">
         <v>33</v>
       </c>
       <c r="B275" t="s">
@@ -10333,7 +10266,7 @@
         <v>33.9</v>
       </c>
       <c r="F275">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="G275">
         <v>90.3</v>
@@ -10348,8 +10281,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A276" s="3" t="s">
+    <row r="276" spans="1:10">
+      <c r="A276" t="s">
         <v>33</v>
       </c>
       <c r="B276" t="s">
@@ -10362,10 +10295,10 @@
         <v>49.4</v>
       </c>
       <c r="F276">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G276">
-        <v>95.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H276">
         <v>16</v>
@@ -10377,8 +10310,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A277" s="3" t="s">
+    <row r="277" spans="1:10">
+      <c r="A277" t="s">
         <v>33</v>
       </c>
       <c r="B277" t="s">
@@ -10406,8 +10339,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A278" s="3" t="s">
+    <row r="278" spans="1:10">
+      <c r="A278" t="s">
         <v>33</v>
       </c>
       <c r="B278" t="s">
@@ -10420,7 +10353,7 @@
         <v>42.6</v>
       </c>
       <c r="F278">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G278">
         <v>88.7</v>
@@ -10435,8 +10368,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A279" s="3" t="s">
+    <row r="279" spans="1:10">
+      <c r="A279" t="s">
         <v>33</v>
       </c>
       <c r="B279" t="s">
@@ -10446,16 +10379,16 @@
         <v>536</v>
       </c>
       <c r="E279">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="F279">
         <v>80.2</v>
       </c>
       <c r="G279">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H279">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="I279">
         <v>0</v>
@@ -10464,8 +10397,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A280" s="3" t="s">
+    <row r="280" spans="1:10">
+      <c r="A280" t="s">
         <v>33</v>
       </c>
       <c r="B280" t="s">
@@ -10481,10 +10414,10 @@
         <v>78</v>
       </c>
       <c r="G280">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H280">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="I280">
         <v>0</v>
@@ -10493,8 +10426,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A281" s="3" t="s">
+    <row r="281" spans="1:10">
+      <c r="A281" t="s">
         <v>33</v>
       </c>
       <c r="B281" t="s">
@@ -10522,8 +10455,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A282" s="3" t="s">
+    <row r="282" spans="1:10">
+      <c r="A282" t="s">
         <v>33</v>
       </c>
       <c r="B282" t="s">
@@ -10551,8 +10484,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A283" s="3" t="s">
+    <row r="283" spans="1:10">
+      <c r="A283" t="s">
         <v>33</v>
       </c>
       <c r="B283" t="s">
@@ -10568,7 +10501,7 @@
         <v>100</v>
       </c>
       <c r="G283">
-        <v>82.1</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H283">
         <v>25.7</v>
@@ -10580,8 +10513,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A284" s="3" t="s">
+    <row r="284" spans="1:10">
+      <c r="A284" t="s">
         <v>33</v>
       </c>
       <c r="B284" t="s">
@@ -10609,8 +10542,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A285" s="3" t="s">
+    <row r="285" spans="1:10">
+      <c r="A285" t="s">
         <v>33</v>
       </c>
       <c r="B285" t="s">
@@ -10626,10 +10559,10 @@
         <v>78.7</v>
       </c>
       <c r="G285">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H285">
-        <v>38.700000000000003</v>
+        <v>38.7</v>
       </c>
       <c r="I285">
         <v>0</v>
@@ -10638,8 +10571,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A286" s="3" t="s">
+    <row r="286" spans="1:10">
+      <c r="A286" t="s">
         <v>33</v>
       </c>
       <c r="B286" t="s">
@@ -10667,8 +10600,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A287" s="3" t="s">
+    <row r="287" spans="1:10">
+      <c r="A287" t="s">
         <v>33</v>
       </c>
       <c r="B287" t="s">
@@ -10696,8 +10629,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A288" s="3" t="s">
+    <row r="288" spans="1:10">
+      <c r="A288" t="s">
         <v>33</v>
       </c>
       <c r="B288" t="s">
@@ -10725,8 +10658,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A289" s="3" t="s">
+    <row r="289" spans="1:10">
+      <c r="A289" t="s">
         <v>33</v>
       </c>
       <c r="B289" t="s">
@@ -10745,7 +10678,7 @@
         <v>87</v>
       </c>
       <c r="H289">
-        <v>33.799999999999997</v>
+        <v>33.8</v>
       </c>
       <c r="I289">
         <v>0</v>
@@ -10754,8 +10687,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A290" s="3" t="s">
+    <row r="290" spans="1:10">
+      <c r="A290" t="s">
         <v>33</v>
       </c>
       <c r="B290" t="s">
@@ -10783,8 +10716,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
+    <row r="291" spans="1:10">
+      <c r="A291" t="s">
         <v>33</v>
       </c>
       <c r="B291" t="s">
@@ -10794,13 +10727,13 @@
         <v>548</v>
       </c>
       <c r="E291">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="F291">
         <v>64.2</v>
       </c>
       <c r="G291">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H291">
         <v>40.6</v>
@@ -10812,8 +10745,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A292" s="3" t="s">
+    <row r="292" spans="1:10">
+      <c r="A292" t="s">
         <v>33</v>
       </c>
       <c r="B292" t="s">
@@ -10823,7 +10756,7 @@
         <v>576</v>
       </c>
       <c r="E292">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="F292">
         <v>82.5</v>
@@ -10841,8 +10774,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A293" s="3" t="s">
+    <row r="293" spans="1:10">
+      <c r="A293" t="s">
         <v>33</v>
       </c>
       <c r="B293" t="s">
@@ -10855,10 +10788,10 @@
         <v>42.2</v>
       </c>
       <c r="F293">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="G293">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H293">
         <v>38.1</v>
@@ -10870,8 +10803,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A294" s="3" t="s">
+    <row r="294" spans="1:10">
+      <c r="A294" t="s">
         <v>33</v>
       </c>
       <c r="B294" t="s">
@@ -10884,10 +10817,10 @@
         <v>28.2</v>
       </c>
       <c r="F294">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="G294">
-        <v>94.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H294">
         <v>26</v>
@@ -10899,8 +10832,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A295" s="3" t="s">
+    <row r="295" spans="1:10">
+      <c r="A295" t="s">
         <v>33</v>
       </c>
       <c r="B295" t="s">
@@ -10910,7 +10843,7 @@
         <v>553</v>
       </c>
       <c r="E295">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="F295">
         <v>87.2</v>
@@ -10928,8 +10861,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A296" s="3" t="s">
+    <row r="296" spans="1:10">
+      <c r="A296" t="s">
         <v>33</v>
       </c>
       <c r="B296" t="s">
@@ -10945,7 +10878,7 @@
         <v>100</v>
       </c>
       <c r="G296">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="H296">
         <v>22.9</v>
@@ -10957,8 +10890,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A297" s="3" t="s">
+    <row r="297" spans="1:10">
+      <c r="A297" t="s">
         <v>33</v>
       </c>
       <c r="B297" t="s">
@@ -10974,7 +10907,7 @@
         <v>88.2</v>
       </c>
       <c r="G297">
-        <v>93.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H297">
         <v>27.9</v>
@@ -10986,8 +10919,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A298" s="3" t="s">
+    <row r="298" spans="1:10">
+      <c r="A298" t="s">
         <v>33</v>
       </c>
       <c r="B298" t="s">
@@ -11000,10 +10933,10 @@
         <v>37.9</v>
       </c>
       <c r="F298">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G298">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="H298">
         <v>34</v>
@@ -11015,8 +10948,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A299" s="3" t="s">
+    <row r="299" spans="1:10">
+      <c r="A299" t="s">
         <v>33</v>
       </c>
       <c r="B299" t="s">
@@ -11044,8 +10977,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A300" s="3" t="s">
+    <row r="300" spans="1:10">
+      <c r="A300" t="s">
         <v>33</v>
       </c>
       <c r="B300" t="s">
@@ -11073,8 +11006,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A301" s="3" t="s">
+    <row r="301" spans="1:10">
+      <c r="A301" t="s">
         <v>33</v>
       </c>
       <c r="B301" t="s">
@@ -11087,7 +11020,7 @@
         <v>45.5</v>
       </c>
       <c r="F301">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G301">
         <v>60.5</v>
@@ -11102,8 +11035,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A302" s="3" t="s">
+    <row r="302" spans="1:10">
+      <c r="A302" t="s">
         <v>34</v>
       </c>
       <c r="B302" t="s">
@@ -11116,7 +11049,7 @@
         <v>24.5</v>
       </c>
       <c r="F302">
-        <v>86.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G302">
         <v>96.8</v>
@@ -11131,8 +11064,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A303" s="3" t="s">
+    <row r="303" spans="1:10">
+      <c r="A303" t="s">
         <v>34</v>
       </c>
       <c r="B303" t="s">
@@ -11160,8 +11093,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A304" s="3" t="s">
+    <row r="304" spans="1:10">
+      <c r="A304" t="s">
         <v>34</v>
       </c>
       <c r="B304" t="s">
@@ -11177,7 +11110,7 @@
         <v>79</v>
       </c>
       <c r="G304">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H304">
         <v>31.5</v>
@@ -11189,8 +11122,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A305" s="3" t="s">
+    <row r="305" spans="1:10">
+      <c r="A305" t="s">
         <v>34</v>
       </c>
       <c r="B305" t="s">
@@ -11218,8 +11151,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A306" s="3" t="s">
+    <row r="306" spans="1:10">
+      <c r="A306" t="s">
         <v>34</v>
       </c>
       <c r="B306" t="s">
@@ -11247,8 +11180,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A307" s="3" t="s">
+    <row r="307" spans="1:10">
+      <c r="A307" t="s">
         <v>34</v>
       </c>
       <c r="B307" t="s">
@@ -11264,7 +11197,7 @@
         <v>83.7</v>
       </c>
       <c r="G307">
-        <v>93.9</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H307">
         <v>26.8</v>
@@ -11276,8 +11209,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A308" s="3" t="s">
+    <row r="308" spans="1:10">
+      <c r="A308" t="s">
         <v>34</v>
       </c>
       <c r="B308" t="s">
@@ -11290,7 +11223,7 @@
         <v>26.9</v>
       </c>
       <c r="F308">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G308">
         <v>93.5</v>
@@ -11305,8 +11238,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A309" s="3" t="s">
+    <row r="309" spans="1:10">
+      <c r="A309" t="s">
         <v>34</v>
       </c>
       <c r="B309" t="s">
@@ -11319,7 +11252,7 @@
         <v>19.3</v>
       </c>
       <c r="F309">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="G309">
         <v>100</v>
@@ -11334,8 +11267,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A310" s="3" t="s">
+    <row r="310" spans="1:10">
+      <c r="A310" t="s">
         <v>34</v>
       </c>
       <c r="B310" t="s">
@@ -11363,8 +11296,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A311" s="3" t="s">
+    <row r="311" spans="1:10">
+      <c r="A311" t="s">
         <v>34</v>
       </c>
       <c r="B311" t="s">
@@ -11377,7 +11310,7 @@
         <v>44.2</v>
       </c>
       <c r="F311">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G311">
         <v>90.3</v>
@@ -11392,8 +11325,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A312" s="3" t="s">
+    <row r="312" spans="1:10">
+      <c r="A312" t="s">
         <v>34</v>
       </c>
       <c r="B312" t="s">
@@ -11406,7 +11339,7 @@
         <v>21.2</v>
       </c>
       <c r="F312">
-        <v>96.9</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G312">
         <v>73.8</v>
@@ -11421,8 +11354,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A313" s="3" t="s">
+    <row r="313" spans="1:10">
+      <c r="A313" t="s">
         <v>34</v>
       </c>
       <c r="B313" t="s">
@@ -11432,10 +11365,10 @@
         <v>580</v>
       </c>
       <c r="E313">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="F313">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G313">
         <v>95.5</v>
@@ -11450,8 +11383,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A314" s="3" t="s">
+    <row r="314" spans="1:10">
+      <c r="A314" t="s">
         <v>34</v>
       </c>
       <c r="B314" t="s">
@@ -11467,7 +11400,7 @@
         <v>68.5</v>
       </c>
       <c r="G314">
-        <v>86.6</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="H314">
         <v>27.9</v>
@@ -11479,8 +11412,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A315" s="3" t="s">
+    <row r="315" spans="1:10">
+      <c r="A315" t="s">
         <v>34</v>
       </c>
       <c r="B315" t="s">
@@ -11508,8 +11441,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A316" s="3" t="s">
+    <row r="316" spans="1:10">
+      <c r="A316" t="s">
         <v>34</v>
       </c>
       <c r="B316" t="s">
@@ -11537,8 +11470,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A317" s="3" t="s">
+    <row r="317" spans="1:10">
+      <c r="A317" t="s">
         <v>34</v>
       </c>
       <c r="B317" t="s">
@@ -11554,7 +11487,7 @@
         <v>100</v>
       </c>
       <c r="G317">
-        <v>78.099999999999994</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="H317">
         <v>18.2</v>
@@ -11566,8 +11499,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A318" s="3" t="s">
+    <row r="318" spans="1:10">
+      <c r="A318" t="s">
         <v>34</v>
       </c>
       <c r="B318" t="s">
@@ -11580,7 +11513,7 @@
         <v>34.5</v>
       </c>
       <c r="F318">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G318">
         <v>86.8</v>
@@ -11595,8 +11528,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A319" s="3" t="s">
+    <row r="319" spans="1:10">
+      <c r="A319" t="s">
         <v>34</v>
       </c>
       <c r="B319" t="s">
@@ -11609,7 +11542,7 @@
         <v>27.6</v>
       </c>
       <c r="F319">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G319">
         <v>92.2</v>
@@ -11624,8 +11557,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A320" s="3" t="s">
+    <row r="320" spans="1:10">
+      <c r="A320" t="s">
         <v>34</v>
       </c>
       <c r="B320" t="s">
@@ -11638,13 +11571,13 @@
         <v>29</v>
       </c>
       <c r="F320">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G320">
         <v>90.7</v>
       </c>
       <c r="H320">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="I320">
         <v>0</v>
@@ -11653,8 +11586,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A321" s="3" t="s">
+    <row r="321" spans="1:10">
+      <c r="A321" t="s">
         <v>34</v>
       </c>
       <c r="B321" t="s">
@@ -11667,7 +11600,7 @@
         <v>23.8</v>
       </c>
       <c r="F321">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G321">
         <v>94.2</v>
@@ -11682,8 +11615,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A322" s="3" t="s">
+    <row r="322" spans="1:10">
+      <c r="A322" t="s">
         <v>34</v>
       </c>
       <c r="B322" t="s">
@@ -11699,7 +11632,7 @@
         <v>85.5</v>
       </c>
       <c r="G322">
-        <v>95.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H322">
         <v>24.5</v>
@@ -11711,8 +11644,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A323" s="3" t="s">
+    <row r="323" spans="1:10">
+      <c r="A323" t="s">
         <v>34</v>
       </c>
       <c r="B323" t="s">
@@ -11722,13 +11655,13 @@
         <v>544</v>
       </c>
       <c r="E323">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="F323">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G323">
-        <v>88.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H323">
         <v>38.9</v>
@@ -11740,8 +11673,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A324" s="3" t="s">
+    <row r="324" spans="1:10">
+      <c r="A324" t="s">
         <v>34</v>
       </c>
       <c r="B324" t="s">
@@ -11757,7 +11690,7 @@
         <v>87.5</v>
       </c>
       <c r="G324">
-        <v>99.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H324">
         <v>28.2</v>
@@ -11769,8 +11702,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A325" s="3" t="s">
+    <row r="325" spans="1:10">
+      <c r="A325" t="s">
         <v>34</v>
       </c>
       <c r="B325" t="s">
@@ -11798,8 +11731,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A326" s="3" t="s">
+    <row r="326" spans="1:10">
+      <c r="A326" t="s">
         <v>34</v>
       </c>
       <c r="B326" t="s">
@@ -11827,8 +11760,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A327" s="3" t="s">
+    <row r="327" spans="1:10">
+      <c r="A327" t="s">
         <v>34</v>
       </c>
       <c r="B327" t="s">
@@ -11856,8 +11789,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A328" s="3" t="s">
+    <row r="328" spans="1:10">
+      <c r="A328" t="s">
         <v>34</v>
       </c>
       <c r="B328" t="s">
@@ -11870,7 +11803,7 @@
         <v>27.4</v>
       </c>
       <c r="F328">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G328">
         <v>97</v>
@@ -11885,8 +11818,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A329" s="3" t="s">
+    <row r="329" spans="1:10">
+      <c r="A329" t="s">
         <v>34</v>
       </c>
       <c r="B329" t="s">
@@ -11905,7 +11838,7 @@
         <v>62.3</v>
       </c>
       <c r="H329">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="I329">
         <v>0</v>
@@ -11914,8 +11847,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A330" s="3" t="s">
+    <row r="330" spans="1:10">
+      <c r="A330" t="s">
         <v>34</v>
       </c>
       <c r="B330" t="s">
@@ -11931,7 +11864,7 @@
         <v>76.2</v>
       </c>
       <c r="G330">
-        <v>84.9</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="H330">
         <v>30.2</v>
@@ -11943,8 +11876,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A331" s="3" t="s">
+    <row r="331" spans="1:10">
+      <c r="A331" t="s">
         <v>34</v>
       </c>
       <c r="B331" t="s">
@@ -11972,8 +11905,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
+    <row r="332" spans="1:10">
+      <c r="A332" t="s">
         <v>34</v>
       </c>
       <c r="B332" t="s">
@@ -11983,7 +11916,7 @@
         <v>573</v>
       </c>
       <c r="E332">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="F332">
         <v>71.5</v>
@@ -12001,8 +11934,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A333" s="3" t="s">
+    <row r="333" spans="1:10">
+      <c r="A333" t="s">
         <v>34</v>
       </c>
       <c r="B333" t="s">
@@ -12018,7 +11951,7 @@
         <v>80.3</v>
       </c>
       <c r="G333">
-        <v>90.1</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="H333">
         <v>28.2</v>
@@ -12030,8 +11963,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A334" s="3" t="s">
+    <row r="334" spans="1:10">
+      <c r="A334" t="s">
         <v>34</v>
       </c>
       <c r="B334" t="s">
@@ -12059,8 +11992,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A335" s="3" t="s">
+    <row r="335" spans="1:10">
+      <c r="A335" t="s">
         <v>34</v>
       </c>
       <c r="B335" t="s">
@@ -12088,8 +12021,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A336" s="3" t="s">
+    <row r="336" spans="1:10">
+      <c r="A336" t="s">
         <v>34</v>
       </c>
       <c r="B336" t="s">
@@ -12117,8 +12050,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A337" s="3" t="s">
+    <row r="337" spans="1:10">
+      <c r="A337" t="s">
         <v>34</v>
       </c>
       <c r="B337" t="s">
@@ -12146,8 +12079,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A338" s="3" t="s">
+    <row r="338" spans="1:10">
+      <c r="A338" t="s">
         <v>34</v>
       </c>
       <c r="B338" t="s">
@@ -12175,8 +12108,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A339" s="3" t="s">
+    <row r="339" spans="1:10">
+      <c r="A339" t="s">
         <v>34</v>
       </c>
       <c r="B339" t="s">
@@ -12189,7 +12122,7 @@
         <v>23.6</v>
       </c>
       <c r="F339">
-        <v>94.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G339">
         <v>99.8</v>
@@ -12204,8 +12137,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A340" s="3" t="s">
+    <row r="340" spans="1:10">
+      <c r="A340" t="s">
         <v>34</v>
       </c>
       <c r="B340" t="s">
@@ -12215,7 +12148,7 @@
         <v>551</v>
       </c>
       <c r="E340">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="F340">
         <v>64.5</v>
@@ -12233,8 +12166,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A341" s="3" t="s">
+    <row r="341" spans="1:10">
+      <c r="A341" t="s">
         <v>34</v>
       </c>
       <c r="B341" t="s">
@@ -12262,8 +12195,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A342" s="3" t="s">
+    <row r="342" spans="1:10">
+      <c r="A342" t="s">
         <v>34</v>
       </c>
       <c r="B342" t="s">
@@ -12273,7 +12206,7 @@
         <v>539</v>
       </c>
       <c r="E342">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="F342">
         <v>98</v>
@@ -12291,8 +12224,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A343" s="3" t="s">
+    <row r="343" spans="1:10">
+      <c r="A343" t="s">
         <v>34</v>
       </c>
       <c r="B343" t="s">
@@ -12305,10 +12238,10 @@
         <v>24.2</v>
       </c>
       <c r="F343">
-        <v>95.9</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="G343">
-        <v>98.6</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H343">
         <v>22.2</v>
@@ -12320,8 +12253,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A344" s="3" t="s">
+    <row r="344" spans="1:10">
+      <c r="A344" t="s">
         <v>34</v>
       </c>
       <c r="B344" t="s">
@@ -12337,7 +12270,7 @@
         <v>88</v>
       </c>
       <c r="G344">
-        <v>98.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H344">
         <v>28.2</v>
@@ -12349,8 +12282,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A345" s="3" t="s">
+    <row r="345" spans="1:10">
+      <c r="A345" t="s">
         <v>34</v>
       </c>
       <c r="B345" t="s">
@@ -12378,8 +12311,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A346" s="3" t="s">
+    <row r="346" spans="1:10">
+      <c r="A346" t="s">
         <v>34</v>
       </c>
       <c r="B346" t="s">
@@ -12395,7 +12328,7 @@
         <v>89.5</v>
       </c>
       <c r="G346">
-        <v>87.1</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H346">
         <v>24.5</v>
@@ -12407,8 +12340,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A347" s="3" t="s">
+    <row r="347" spans="1:10">
+      <c r="A347" t="s">
         <v>34</v>
       </c>
       <c r="B347" t="s">
@@ -12424,7 +12357,7 @@
         <v>75</v>
       </c>
       <c r="G347">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H347">
         <v>30.7</v>
@@ -12436,8 +12369,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A348" s="3" t="s">
+    <row r="348" spans="1:10">
+      <c r="A348" t="s">
         <v>34</v>
       </c>
       <c r="B348" t="s">
@@ -12465,8 +12398,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A349" s="3" t="s">
+    <row r="349" spans="1:10">
+      <c r="A349" t="s">
         <v>34</v>
       </c>
       <c r="B349" t="s">
@@ -12476,16 +12409,16 @@
         <v>549</v>
       </c>
       <c r="E349">
-        <v>38.299999999999997</v>
+        <v>38.3</v>
       </c>
       <c r="F349">
         <v>68.3</v>
       </c>
       <c r="G349">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="H349">
-        <v>38.700000000000003</v>
+        <v>38.7</v>
       </c>
       <c r="I349">
         <v>0</v>
@@ -12494,8 +12427,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A350" s="3" t="s">
+    <row r="350" spans="1:10">
+      <c r="A350" t="s">
         <v>34</v>
       </c>
       <c r="B350" t="s">
@@ -12511,7 +12444,7 @@
         <v>88.3</v>
       </c>
       <c r="G350">
-        <v>98.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H350">
         <v>26.8</v>
@@ -12523,8 +12456,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A351" s="3" t="s">
+    <row r="351" spans="1:10">
+      <c r="A351" t="s">
         <v>34</v>
       </c>
       <c r="B351" t="s">
@@ -12540,7 +12473,7 @@
         <v>85.5</v>
       </c>
       <c r="G351">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H351">
         <v>28.7</v>
@@ -12552,8 +12485,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A352" s="3" t="s">
+    <row r="352" spans="1:10">
+      <c r="A352" t="s">
         <v>34</v>
       </c>
       <c r="B352" t="s">
@@ -12581,8 +12514,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A353" s="3" t="s">
+    <row r="353" spans="1:10">
+      <c r="A353" t="s">
         <v>34</v>
       </c>
       <c r="B353" t="s">
@@ -12610,8 +12543,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A354" s="3" t="s">
+    <row r="354" spans="1:10">
+      <c r="A354" t="s">
         <v>34</v>
       </c>
       <c r="B354" t="s">
@@ -12639,8 +12572,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A355" s="3" t="s">
+    <row r="355" spans="1:10">
+      <c r="A355" t="s">
         <v>34</v>
       </c>
       <c r="B355" t="s">
@@ -12668,8 +12601,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A356" s="3" t="s">
+    <row r="356" spans="1:10">
+      <c r="A356" t="s">
         <v>34</v>
       </c>
       <c r="B356" t="s">
@@ -12685,7 +12618,7 @@
         <v>74.2</v>
       </c>
       <c r="G356">
-        <v>93.6</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H356">
         <v>30.5</v>
@@ -12697,8 +12630,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A357" s="3" t="s">
+    <row r="357" spans="1:10">
+      <c r="A357" t="s">
         <v>34</v>
       </c>
       <c r="B357" t="s">
@@ -12726,8 +12659,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A358" s="3" t="s">
+    <row r="358" spans="1:10">
+      <c r="A358" t="s">
         <v>34</v>
       </c>
       <c r="B358" t="s">
@@ -12740,7 +12673,7 @@
         <v>28.6</v>
       </c>
       <c r="F358">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G358">
         <v>99</v>
@@ -12755,8 +12688,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A359" s="3" t="s">
+    <row r="359" spans="1:10">
+      <c r="A359" t="s">
         <v>34</v>
       </c>
       <c r="B359" t="s">
@@ -12784,8 +12717,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A360" s="3" t="s">
+    <row r="360" spans="1:10">
+      <c r="A360" t="s">
         <v>34</v>
       </c>
       <c r="B360" t="s">
@@ -12798,10 +12731,10 @@
         <v>45.8</v>
       </c>
       <c r="F360">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G360">
-        <v>84.9</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="H360">
         <v>27.7</v>
@@ -12813,8 +12746,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A361" s="3" t="s">
+    <row r="361" spans="1:10">
+      <c r="A361" t="s">
         <v>34</v>
       </c>
       <c r="B361" t="s">
@@ -12830,7 +12763,7 @@
         <v>80.5</v>
       </c>
       <c r="G361">
-        <v>89.1</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="H361">
         <v>27.7</v>
@@ -12842,8 +12775,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A362" s="3" t="s">
+    <row r="362" spans="1:10">
+      <c r="A362" t="s">
         <v>34</v>
       </c>
       <c r="B362" t="s">
@@ -12856,10 +12789,10 @@
         <v>24.5</v>
       </c>
       <c r="F362">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G362">
-        <v>95.4</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H362">
         <v>22.2</v>
@@ -12871,8 +12804,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A363" s="3" t="s">
+    <row r="363" spans="1:10">
+      <c r="A363" t="s">
         <v>34</v>
       </c>
       <c r="B363" t="s">
@@ -12900,8 +12833,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A364" s="3" t="s">
+    <row r="364" spans="1:10">
+      <c r="A364" t="s">
         <v>34</v>
       </c>
       <c r="B364" t="s">
@@ -12914,7 +12847,7 @@
         <v>24.8</v>
       </c>
       <c r="F364">
-        <v>94.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G364">
         <v>99</v>
@@ -12929,8 +12862,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A365" s="3" t="s">
+    <row r="365" spans="1:10">
+      <c r="A365" t="s">
         <v>34</v>
       </c>
       <c r="B365" t="s">
@@ -12946,7 +12879,7 @@
         <v>78.2</v>
       </c>
       <c r="G365">
-        <v>95.4</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H365">
         <v>30.7</v>
@@ -12958,8 +12891,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A366" s="3" t="s">
+    <row r="366" spans="1:10">
+      <c r="A366" t="s">
         <v>34</v>
       </c>
       <c r="B366" t="s">
@@ -12972,10 +12905,10 @@
         <v>24.5</v>
       </c>
       <c r="F366">
-        <v>88.9</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G366">
-        <v>91.4</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="H366">
         <v>22.6</v>
@@ -12987,8 +12920,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A367" s="3" t="s">
+    <row r="367" spans="1:10">
+      <c r="A367" t="s">
         <v>34</v>
       </c>
       <c r="B367" t="s">
@@ -13016,8 +12949,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A368" s="3" t="s">
+    <row r="368" spans="1:10">
+      <c r="A368" t="s">
         <v>34</v>
       </c>
       <c r="B368" t="s">
@@ -13045,8 +12978,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A369" s="3" t="s">
+    <row r="369" spans="1:10">
+      <c r="A369" t="s">
         <v>34</v>
       </c>
       <c r="B369" t="s">
@@ -13059,10 +12992,10 @@
         <v>27.1</v>
       </c>
       <c r="F369">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="G369">
-        <v>89.6</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="H369">
         <v>27.4</v>
@@ -13074,8 +13007,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A370" s="3" t="s">
+    <row r="370" spans="1:10">
+      <c r="A370" t="s">
         <v>34</v>
       </c>
       <c r="B370" t="s">
@@ -13103,8 +13036,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A371" s="3" t="s">
+    <row r="371" spans="1:10">
+      <c r="A371" t="s">
         <v>34</v>
       </c>
       <c r="B371" t="s">
@@ -13114,7 +13047,7 @@
         <v>586</v>
       </c>
       <c r="E371">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="F371">
         <v>71.5</v>
@@ -13132,8 +13065,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A372" s="3" t="s">
+    <row r="372" spans="1:10">
+      <c r="A372" t="s">
         <v>34</v>
       </c>
       <c r="B372" t="s">
@@ -13149,7 +13082,7 @@
         <v>74</v>
       </c>
       <c r="G372">
-        <v>92.6</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="H372">
         <v>36.1</v>
@@ -13161,8 +13094,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A373" s="3" t="s">
+    <row r="373" spans="1:10">
+      <c r="A373" t="s">
         <v>34</v>
       </c>
       <c r="B373" t="s">
@@ -13190,8 +13123,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A374" s="3" t="s">
+    <row r="374" spans="1:10">
+      <c r="A374" t="s">
         <v>34</v>
       </c>
       <c r="B374" t="s">
@@ -13201,7 +13134,7 @@
         <v>545</v>
       </c>
       <c r="E374">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="F374">
         <v>100</v>
@@ -13219,8 +13152,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A375" s="3" t="s">
+    <row r="375" spans="1:10">
+      <c r="A375" t="s">
         <v>34</v>
       </c>
       <c r="B375" t="s">
@@ -13248,8 +13181,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A376" s="3" t="s">
+    <row r="376" spans="1:10">
+      <c r="A376" t="s">
         <v>34</v>
       </c>
       <c r="B376" t="s">
@@ -13259,10 +13192,10 @@
         <v>28</v>
       </c>
       <c r="F376">
-        <v>81.599999999999994</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G376">
-        <v>96.6</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H376">
         <v>30.2</v>
@@ -13274,8 +13207,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A377" s="3" t="s">
+    <row r="377" spans="1:10">
+      <c r="A377" t="s">
         <v>34</v>
       </c>
       <c r="B377" t="s">
@@ -13303,8 +13236,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A378" s="3" t="s">
+    <row r="378" spans="1:10">
+      <c r="A378" t="s">
         <v>34</v>
       </c>
       <c r="B378" t="s">
@@ -13317,10 +13250,10 @@
         <v>29.1</v>
       </c>
       <c r="F378">
-        <v>83.4</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="G378">
-        <v>96.1</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H378">
         <v>29</v>
@@ -13332,8 +13265,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A379" s="3" t="s">
+    <row r="379" spans="1:10">
+      <c r="A379" t="s">
         <v>34</v>
       </c>
       <c r="B379" t="s">
@@ -13343,16 +13276,16 @@
         <v>536</v>
       </c>
       <c r="E379">
-        <v>33.700000000000003</v>
+        <v>33.7</v>
       </c>
       <c r="F379">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G379">
-        <v>83.1</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H379">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="I379">
         <v>0</v>
@@ -13361,8 +13294,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A380" s="3" t="s">
+    <row r="380" spans="1:10">
+      <c r="A380" t="s">
         <v>34</v>
       </c>
       <c r="B380" t="s">
@@ -13375,7 +13308,7 @@
         <v>29.2</v>
       </c>
       <c r="F380">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G380">
         <v>92.2</v>
@@ -13390,8 +13323,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A381" s="3" t="s">
+    <row r="381" spans="1:10">
+      <c r="A381" t="s">
         <v>34</v>
       </c>
       <c r="B381" t="s">
@@ -13419,8 +13352,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A382" s="3" t="s">
+    <row r="382" spans="1:10">
+      <c r="A382" t="s">
         <v>34</v>
       </c>
       <c r="B382" t="s">
@@ -13448,8 +13381,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A383" s="3" t="s">
+    <row r="383" spans="1:10">
+      <c r="A383" t="s">
         <v>34</v>
       </c>
       <c r="B383" t="s">
@@ -13462,10 +13395,10 @@
         <v>25.4</v>
       </c>
       <c r="F383">
-        <v>89.4</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G383">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H383">
         <v>21.9</v>
@@ -13477,8 +13410,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A384" s="3" t="s">
+    <row r="384" spans="1:10">
+      <c r="A384" t="s">
         <v>34</v>
       </c>
       <c r="B384" t="s">
@@ -13506,8 +13439,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A385" s="3" t="s">
+    <row r="385" spans="1:10">
+      <c r="A385" t="s">
         <v>34</v>
       </c>
       <c r="B385" t="s">
@@ -13523,7 +13456,7 @@
         <v>75.2</v>
       </c>
       <c r="G385">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="H385">
         <v>28.2</v>
@@ -13535,8 +13468,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A386" s="3" t="s">
+    <row r="386" spans="1:10">
+      <c r="A386" t="s">
         <v>34</v>
       </c>
       <c r="B386" t="s">
@@ -13552,7 +13485,7 @@
         <v>75.7</v>
       </c>
       <c r="G386">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H386">
         <v>34.6</v>
@@ -13564,8 +13497,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A387" s="3" t="s">
+    <row r="387" spans="1:10">
+      <c r="A387" t="s">
         <v>34</v>
       </c>
       <c r="B387" t="s">
@@ -13593,8 +13526,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A388" s="3" t="s">
+    <row r="388" spans="1:10">
+      <c r="A388" t="s">
         <v>34</v>
       </c>
       <c r="B388" t="s">
@@ -13622,8 +13555,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A389" s="3" t="s">
+    <row r="389" spans="1:10">
+      <c r="A389" t="s">
         <v>34</v>
       </c>
       <c r="B389" t="s">
@@ -13639,7 +13572,7 @@
         <v>83.8</v>
       </c>
       <c r="G389">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="H389">
         <v>28.5</v>
@@ -13651,8 +13584,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A390" s="3" t="s">
+    <row r="390" spans="1:10">
+      <c r="A390" t="s">
         <v>34</v>
       </c>
       <c r="B390" t="s">
@@ -13665,7 +13598,7 @@
         <v>26.6</v>
       </c>
       <c r="F390">
-        <v>68.599999999999994</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="G390">
         <v>84.8</v>
@@ -13680,8 +13613,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A391" s="3" t="s">
+    <row r="391" spans="1:10">
+      <c r="A391" t="s">
         <v>34</v>
       </c>
       <c r="B391" t="s">
@@ -13709,8 +13642,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A392" s="3" t="s">
+    <row r="392" spans="1:10">
+      <c r="A392" t="s">
         <v>34</v>
       </c>
       <c r="B392" t="s">
@@ -13723,7 +13656,7 @@
         <v>28.2</v>
       </c>
       <c r="F392">
-        <v>82.6</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G392">
         <v>87</v>
@@ -13738,8 +13671,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A393" s="3" t="s">
+    <row r="393" spans="1:10">
+      <c r="A393" t="s">
         <v>34</v>
       </c>
       <c r="B393" t="s">
@@ -13755,10 +13688,10 @@
         <v>100</v>
       </c>
       <c r="G393">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H393">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="I393">
         <v>0</v>
@@ -13767,8 +13700,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A394" s="3" t="s">
+    <row r="394" spans="1:10">
+      <c r="A394" t="s">
         <v>34</v>
       </c>
       <c r="B394" t="s">
@@ -13787,7 +13720,7 @@
         <v>85.3</v>
       </c>
       <c r="H394">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="I394">
         <v>0</v>
@@ -13796,8 +13729,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A395" s="3" t="s">
+    <row r="395" spans="1:10">
+      <c r="A395" t="s">
         <v>34</v>
       </c>
       <c r="B395" t="s">
@@ -13807,7 +13740,7 @@
         <v>544</v>
       </c>
       <c r="E395">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="F395">
         <v>74.2</v>
@@ -13825,8 +13758,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A396" s="3" t="s">
+    <row r="396" spans="1:10">
+      <c r="A396" t="s">
         <v>34</v>
       </c>
       <c r="B396" t="s">
@@ -13836,10 +13769,10 @@
         <v>561</v>
       </c>
       <c r="E396">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="F396">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G396">
         <v>89.2</v>
@@ -13854,8 +13787,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A397" s="3" t="s">
+    <row r="397" spans="1:10">
+      <c r="A397" t="s">
         <v>34</v>
       </c>
       <c r="B397" t="s">
@@ -13868,10 +13801,10 @@
         <v>21.7</v>
       </c>
       <c r="F397">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G397">
-        <v>99.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H397">
         <v>25.1</v>
@@ -13883,8 +13816,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A398" s="3" t="s">
+    <row r="398" spans="1:10">
+      <c r="A398" t="s">
         <v>34</v>
       </c>
       <c r="B398" t="s">
@@ -13900,10 +13833,10 @@
         <v>69.2</v>
       </c>
       <c r="G398">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="H398">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="I398">
         <v>0</v>
@@ -13912,8 +13845,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A399" s="3" t="s">
+    <row r="399" spans="1:10">
+      <c r="A399" t="s">
         <v>34</v>
       </c>
       <c r="B399" t="s">
@@ -13929,7 +13862,7 @@
         <v>100</v>
       </c>
       <c r="G399">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H399">
         <v>25.4</v>
@@ -13941,8 +13874,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A400" s="3" t="s">
+    <row r="400" spans="1:10">
+      <c r="A400" t="s">
         <v>34</v>
       </c>
       <c r="B400" t="s">
@@ -13970,8 +13903,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A401" s="3" t="s">
+    <row r="401" spans="1:10">
+      <c r="A401" t="s">
         <v>34</v>
       </c>
       <c r="B401" t="s">
@@ -13987,7 +13920,7 @@
         <v>83.8</v>
       </c>
       <c r="G401">
-        <v>92.9</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H401">
         <v>26.5</v>
@@ -13999,8 +13932,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A402" s="3" t="s">
+    <row r="402" spans="1:10">
+      <c r="A402" t="s">
         <v>35</v>
       </c>
       <c r="B402" t="s">
@@ -14013,7 +13946,7 @@
         <v>31.8</v>
       </c>
       <c r="F402">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G402">
         <v>89.8</v>
@@ -14028,8 +13961,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A403" s="3" t="s">
+    <row r="403" spans="1:10">
+      <c r="A403" t="s">
         <v>35</v>
       </c>
       <c r="B403" t="s">
@@ -14039,13 +13972,13 @@
         <v>536</v>
       </c>
       <c r="E403">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="F403">
-        <v>67.599999999999994</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="G403">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H403">
         <v>25.4</v>
@@ -14057,8 +13990,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A404" s="3" t="s">
+    <row r="404" spans="1:10">
+      <c r="A404" t="s">
         <v>35</v>
       </c>
       <c r="B404" t="s">
@@ -14086,8 +14019,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A405" s="3" t="s">
+    <row r="405" spans="1:10">
+      <c r="A405" t="s">
         <v>35</v>
       </c>
       <c r="B405" t="s">
@@ -14097,7 +14030,7 @@
         <v>536</v>
       </c>
       <c r="E405">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="F405">
         <v>86</v>
@@ -14106,7 +14039,7 @@
         <v>98.2</v>
       </c>
       <c r="H405">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="I405">
         <v>0</v>
@@ -14115,8 +14048,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A406" s="3" t="s">
+    <row r="406" spans="1:10">
+      <c r="A406" t="s">
         <v>35</v>
       </c>
       <c r="B406" t="s">
@@ -14132,7 +14065,7 @@
         <v>86.3</v>
       </c>
       <c r="G406">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H406">
         <v>17.7</v>
@@ -14144,8 +14077,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A407" s="3" t="s">
+    <row r="407" spans="1:10">
+      <c r="A407" t="s">
         <v>35</v>
       </c>
       <c r="B407" t="s">
@@ -14173,8 +14106,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A408" s="3" t="s">
+    <row r="408" spans="1:10">
+      <c r="A408" t="s">
         <v>35</v>
       </c>
       <c r="B408" t="s">
@@ -14202,8 +14135,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A409" s="3" t="s">
+    <row r="409" spans="1:10">
+      <c r="A409" t="s">
         <v>35</v>
       </c>
       <c r="B409" t="s">
@@ -14231,8 +14164,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A410" s="3" t="s">
+    <row r="410" spans="1:10">
+      <c r="A410" t="s">
         <v>35</v>
       </c>
       <c r="B410" t="s">
@@ -14245,10 +14178,10 @@
         <v>37.4</v>
       </c>
       <c r="F410">
-        <v>65.099999999999994</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G410">
-        <v>79.099999999999994</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="H410">
         <v>29.5</v>
@@ -14260,8 +14193,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A411" s="3" t="s">
+    <row r="411" spans="1:10">
+      <c r="A411" t="s">
         <v>35</v>
       </c>
       <c r="B411" t="s">
@@ -14289,8 +14222,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A412" s="3" t="s">
+    <row r="412" spans="1:10">
+      <c r="A412" t="s">
         <v>35</v>
       </c>
       <c r="B412" t="s">
@@ -14303,7 +14236,7 @@
         <v>17.3</v>
       </c>
       <c r="F412">
-        <v>87.1</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G412">
         <v>95.5</v>
@@ -14318,8 +14251,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A413" s="3" t="s">
+    <row r="413" spans="1:10">
+      <c r="A413" t="s">
         <v>35</v>
       </c>
       <c r="B413" t="s">
@@ -14332,10 +14265,10 @@
         <v>23</v>
       </c>
       <c r="F413">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="G413">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H413">
         <v>22.6</v>
@@ -14347,8 +14280,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A414" s="3" t="s">
+    <row r="414" spans="1:10">
+      <c r="A414" t="s">
         <v>35</v>
       </c>
       <c r="B414" t="s">
@@ -14364,7 +14297,7 @@
         <v>66.5</v>
       </c>
       <c r="G414">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H414">
         <v>24.8</v>
@@ -14376,8 +14309,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A415" s="3" t="s">
+    <row r="415" spans="1:10">
+      <c r="A415" t="s">
         <v>35</v>
       </c>
       <c r="B415" t="s">
@@ -14390,7 +14323,7 @@
         <v>31.5</v>
       </c>
       <c r="F415">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G415">
         <v>79.3</v>
@@ -14405,8 +14338,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A416" s="3" t="s">
+    <row r="416" spans="1:10">
+      <c r="A416" t="s">
         <v>35</v>
       </c>
       <c r="B416" t="s">
@@ -14434,8 +14367,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A417" s="3" t="s">
+    <row r="417" spans="1:10">
+      <c r="A417" t="s">
         <v>35</v>
       </c>
       <c r="B417" t="s">
@@ -14448,7 +14381,7 @@
         <v>32.4</v>
       </c>
       <c r="F417">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G417">
         <v>77.3</v>
@@ -14463,8 +14396,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A418" s="3" t="s">
+    <row r="418" spans="1:10">
+      <c r="A418" t="s">
         <v>35</v>
       </c>
       <c r="B418" t="s">
@@ -14474,13 +14407,13 @@
         <v>538</v>
       </c>
       <c r="E418">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="F418">
         <v>87</v>
       </c>
       <c r="G418">
-        <v>91.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="H418">
         <v>22.2</v>
@@ -14492,8 +14425,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A419" s="3" t="s">
+    <row r="419" spans="1:10">
+      <c r="A419" t="s">
         <v>35</v>
       </c>
       <c r="B419" t="s">
@@ -14521,8 +14454,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A420" s="3" t="s">
+    <row r="420" spans="1:10">
+      <c r="A420" t="s">
         <v>35</v>
       </c>
       <c r="B420" t="s">
@@ -14550,8 +14483,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A421" s="3" t="s">
+    <row r="421" spans="1:10">
+      <c r="A421" t="s">
         <v>35</v>
       </c>
       <c r="B421" t="s">
@@ -14561,7 +14494,7 @@
         <v>573</v>
       </c>
       <c r="E421">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="F421">
         <v>100</v>
@@ -14579,8 +14512,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A422" s="3" t="s">
+    <row r="422" spans="1:10">
+      <c r="A422" t="s">
         <v>35</v>
       </c>
       <c r="B422" t="s">
@@ -14596,7 +14529,7 @@
         <v>79.3</v>
       </c>
       <c r="G422">
-        <v>95.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H422">
         <v>26.3</v>
@@ -14608,8 +14541,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A423" s="3" t="s">
+    <row r="423" spans="1:10">
+      <c r="A423" t="s">
         <v>35</v>
       </c>
       <c r="B423" t="s">
@@ -14625,7 +14558,7 @@
         <v>72.3</v>
       </c>
       <c r="G423">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H423">
         <v>29</v>
@@ -14637,8 +14570,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A424" s="3" t="s">
+    <row r="424" spans="1:10">
+      <c r="A424" t="s">
         <v>35</v>
       </c>
       <c r="B424" t="s">
@@ -14648,7 +14581,7 @@
         <v>589</v>
       </c>
       <c r="E424">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="F424">
         <v>62.9</v>
@@ -14666,8 +14599,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A425" s="3" t="s">
+    <row r="425" spans="1:10">
+      <c r="A425" t="s">
         <v>35</v>
       </c>
       <c r="B425" t="s">
@@ -14680,7 +14613,7 @@
         <v>27.9</v>
       </c>
       <c r="F425">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="G425">
         <v>81.2</v>
@@ -14695,8 +14628,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A426" s="3" t="s">
+    <row r="426" spans="1:10">
+      <c r="A426" t="s">
         <v>35</v>
       </c>
       <c r="B426" t="s">
@@ -14715,7 +14648,7 @@
         <v>48.1</v>
       </c>
       <c r="H426">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="I426">
         <v>0</v>
@@ -14724,8 +14657,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A427" s="3" t="s">
+    <row r="427" spans="1:10">
+      <c r="A427" t="s">
         <v>35</v>
       </c>
       <c r="B427" t="s">
@@ -14735,10 +14668,10 @@
         <v>537</v>
       </c>
       <c r="E427">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="F427">
-        <v>73.599999999999994</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G427">
         <v>78.8</v>
@@ -14753,8 +14686,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A428" s="3" t="s">
+    <row r="428" spans="1:10">
+      <c r="A428" t="s">
         <v>35</v>
       </c>
       <c r="B428" t="s">
@@ -14782,8 +14715,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A429" s="3" t="s">
+    <row r="429" spans="1:10">
+      <c r="A429" t="s">
         <v>35</v>
       </c>
       <c r="B429" t="s">
@@ -14811,8 +14744,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A430" s="3" t="s">
+    <row r="430" spans="1:10">
+      <c r="A430" t="s">
         <v>35</v>
       </c>
       <c r="B430" t="s">
@@ -14840,8 +14773,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A431" s="3" t="s">
+    <row r="431" spans="1:10">
+      <c r="A431" t="s">
         <v>35</v>
       </c>
       <c r="B431" t="s">
@@ -14854,7 +14787,7 @@
         <v>24.9</v>
       </c>
       <c r="F431">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G431">
         <v>89.2</v>
@@ -14869,8 +14802,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A432" s="3" t="s">
+    <row r="432" spans="1:10">
+      <c r="A432" t="s">
         <v>35</v>
       </c>
       <c r="B432" t="s">
@@ -14898,8 +14831,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A433" s="3" t="s">
+    <row r="433" spans="1:10">
+      <c r="A433" t="s">
         <v>35</v>
       </c>
       <c r="B433" t="s">
@@ -14927,8 +14860,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A434" s="3" t="s">
+    <row r="434" spans="1:10">
+      <c r="A434" t="s">
         <v>35</v>
       </c>
       <c r="B434" t="s">
@@ -14944,7 +14877,7 @@
         <v>74.7</v>
       </c>
       <c r="G434">
-        <v>81.900000000000006</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H434">
         <v>22.2</v>
@@ -14956,8 +14889,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A435" s="3" t="s">
+    <row r="435" spans="1:10">
+      <c r="A435" t="s">
         <v>35</v>
       </c>
       <c r="B435" t="s">
@@ -14970,10 +14903,10 @@
         <v>38.1</v>
       </c>
       <c r="F435">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G435">
-        <v>88.1</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H435">
         <v>24.8</v>
@@ -14985,8 +14918,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A436" s="3" t="s">
+    <row r="436" spans="1:10">
+      <c r="A436" t="s">
         <v>35</v>
       </c>
       <c r="B436" t="s">
@@ -15014,8 +14947,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A437" s="3" t="s">
+    <row r="437" spans="1:10">
+      <c r="A437" t="s">
         <v>35</v>
       </c>
       <c r="B437" t="s">
@@ -15025,13 +14958,13 @@
         <v>536</v>
       </c>
       <c r="E437">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="F437">
         <v>69.3</v>
       </c>
       <c r="G437">
-        <v>69.599999999999994</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="H437">
         <v>30.7</v>
@@ -15043,8 +14976,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A438" s="3" t="s">
+    <row r="438" spans="1:10">
+      <c r="A438" t="s">
         <v>35</v>
       </c>
       <c r="B438" t="s">
@@ -15057,7 +14990,7 @@
         <v>28.5</v>
       </c>
       <c r="F438">
-        <v>79.400000000000006</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G438">
         <v>92</v>
@@ -15072,8 +15005,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A439" s="3" t="s">
+    <row r="439" spans="1:10">
+      <c r="A439" t="s">
         <v>35</v>
       </c>
       <c r="B439" t="s">
@@ -15089,7 +15022,7 @@
         <v>87.8</v>
       </c>
       <c r="G439">
-        <v>88.6</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="H439">
         <v>19.7</v>
@@ -15101,8 +15034,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A440" s="3" t="s">
+    <row r="440" spans="1:10">
+      <c r="A440" t="s">
         <v>35</v>
       </c>
       <c r="B440" t="s">
@@ -15115,7 +15048,7 @@
         <v>22.1</v>
       </c>
       <c r="F440">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G440">
         <v>95.8</v>
@@ -15130,8 +15063,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A441" s="3" t="s">
+    <row r="441" spans="1:10">
+      <c r="A441" t="s">
         <v>35</v>
       </c>
       <c r="B441" t="s">
@@ -15147,7 +15080,7 @@
         <v>60.6</v>
       </c>
       <c r="G441">
-        <v>65.400000000000006</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="H441">
         <v>28.2</v>
@@ -15159,8 +15092,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A442" s="3" t="s">
+    <row r="442" spans="1:10">
+      <c r="A442" t="s">
         <v>35</v>
       </c>
       <c r="B442" t="s">
@@ -15170,13 +15103,13 @@
         <v>545</v>
       </c>
       <c r="E442">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="F442">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G442">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="H442">
         <v>25.1</v>
@@ -15188,8 +15121,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A443" s="3" t="s">
+    <row r="443" spans="1:10">
+      <c r="A443" t="s">
         <v>35</v>
       </c>
       <c r="B443" t="s">
@@ -15205,7 +15138,7 @@
         <v>70.5</v>
       </c>
       <c r="G443">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H443">
         <v>24.2</v>
@@ -15217,8 +15150,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A444" s="3" t="s">
+    <row r="444" spans="1:10">
+      <c r="A444" t="s">
         <v>35</v>
       </c>
       <c r="B444" t="s">
@@ -15231,7 +15164,7 @@
         <v>21.2</v>
       </c>
       <c r="F444">
-        <v>79.599999999999994</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G444">
         <v>96.5</v>
@@ -15246,8 +15179,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A445" s="3" t="s">
+    <row r="445" spans="1:10">
+      <c r="A445" t="s">
         <v>35</v>
       </c>
       <c r="B445" t="s">
@@ -15275,8 +15208,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A446" s="3" t="s">
+    <row r="446" spans="1:10">
+      <c r="A446" t="s">
         <v>35</v>
       </c>
       <c r="B446" t="s">
@@ -15292,7 +15225,7 @@
         <v>72</v>
       </c>
       <c r="G446">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H446">
         <v>25.1</v>
@@ -15304,8 +15237,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A447" s="3" t="s">
+    <row r="447" spans="1:10">
+      <c r="A447" t="s">
         <v>35</v>
       </c>
       <c r="B447" t="s">
@@ -15333,8 +15266,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A448" s="3" t="s">
+    <row r="448" spans="1:10">
+      <c r="A448" t="s">
         <v>35</v>
       </c>
       <c r="B448" t="s">
@@ -15347,13 +15280,13 @@
         <v>43.7</v>
       </c>
       <c r="F448">
-        <v>74.900000000000006</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G448">
         <v>56.8</v>
       </c>
       <c r="H448">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="I448">
         <v>0</v>
@@ -15362,8 +15295,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A449" s="3" t="s">
+    <row r="449" spans="1:10">
+      <c r="A449" t="s">
         <v>35</v>
       </c>
       <c r="B449" t="s">
@@ -15391,8 +15324,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A450" s="3" t="s">
+    <row r="450" spans="1:10">
+      <c r="A450" t="s">
         <v>35</v>
       </c>
       <c r="B450" t="s">
@@ -15420,8 +15353,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A451" s="3" t="s">
+    <row r="451" spans="1:10">
+      <c r="A451" t="s">
         <v>35</v>
       </c>
       <c r="B451" t="s">
@@ -15434,7 +15367,7 @@
         <v>33.9</v>
       </c>
       <c r="F451">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G451">
         <v>67.5</v>
@@ -15449,8 +15382,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A452" s="3" t="s">
+    <row r="452" spans="1:10">
+      <c r="A452" t="s">
         <v>35</v>
       </c>
       <c r="B452" t="s">
@@ -15466,7 +15399,7 @@
         <v>64</v>
       </c>
       <c r="G452">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H452">
         <v>26</v>
@@ -15478,8 +15411,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A453" s="3" t="s">
+    <row r="453" spans="1:10">
+      <c r="A453" t="s">
         <v>35</v>
       </c>
       <c r="B453" t="s">
@@ -15507,8 +15440,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A454" s="3" t="s">
+    <row r="454" spans="1:10">
+      <c r="A454" t="s">
         <v>35</v>
       </c>
       <c r="B454" t="s">
@@ -15536,8 +15469,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A455" s="3" t="s">
+    <row r="455" spans="1:10">
+      <c r="A455" t="s">
         <v>35</v>
       </c>
       <c r="B455" t="s">
@@ -15553,7 +15486,7 @@
         <v>87.7</v>
       </c>
       <c r="G455">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H455">
         <v>23.9</v>
@@ -15565,8 +15498,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A456" s="3" t="s">
+    <row r="456" spans="1:10">
+      <c r="A456" t="s">
         <v>35</v>
       </c>
       <c r="B456" t="s">
@@ -15579,7 +15512,7 @@
         <v>23.2</v>
       </c>
       <c r="F456">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G456">
         <v>78.3</v>
@@ -15594,8 +15527,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A457" s="3" t="s">
+    <row r="457" spans="1:10">
+      <c r="A457" t="s">
         <v>35</v>
       </c>
       <c r="B457" t="s">
@@ -15605,13 +15538,13 @@
         <v>537</v>
       </c>
       <c r="E457">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="F457">
         <v>66.8</v>
       </c>
       <c r="G457">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H457">
         <v>22.9</v>
@@ -15623,8 +15556,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A458" s="3" t="s">
+    <row r="458" spans="1:10">
+      <c r="A458" t="s">
         <v>35</v>
       </c>
       <c r="B458" t="s">
@@ -15637,7 +15570,7 @@
         <v>33.9</v>
       </c>
       <c r="F458">
-        <v>73.900000000000006</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G458">
         <v>81.7</v>
@@ -15652,8 +15585,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A459" s="3" t="s">
+    <row r="459" spans="1:10">
+      <c r="A459" t="s">
         <v>35</v>
       </c>
       <c r="B459" t="s">
@@ -15663,16 +15596,16 @@
         <v>549</v>
       </c>
       <c r="E459">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="F459">
         <v>63.2</v>
       </c>
       <c r="G459">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H459">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="I459">
         <v>0</v>
@@ -15681,8 +15614,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A460" s="3" t="s">
+    <row r="460" spans="1:10">
+      <c r="A460" t="s">
         <v>35</v>
       </c>
       <c r="B460" t="s">
@@ -15698,7 +15631,7 @@
         <v>85.7</v>
       </c>
       <c r="G460">
-        <v>92.9</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="H460">
         <v>17.7</v>
@@ -15710,8 +15643,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A461" s="3" t="s">
+    <row r="461" spans="1:10">
+      <c r="A461" t="s">
         <v>35</v>
       </c>
       <c r="B461" t="s">
@@ -15721,16 +15654,16 @@
         <v>551</v>
       </c>
       <c r="E461">
-        <v>34.700000000000003</v>
+        <v>34.7</v>
       </c>
       <c r="F461">
         <v>80</v>
       </c>
       <c r="G461">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="H461">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="I461">
         <v>0</v>
@@ -15739,8 +15672,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A462" s="3" t="s">
+    <row r="462" spans="1:10">
+      <c r="A462" t="s">
         <v>35</v>
       </c>
       <c r="B462" t="s">
@@ -15753,10 +15686,10 @@
         <v>26.8</v>
       </c>
       <c r="F462">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G462">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="H462">
         <v>28.2</v>
@@ -15768,8 +15701,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A463" s="3" t="s">
+    <row r="463" spans="1:10">
+      <c r="A463" t="s">
         <v>35</v>
       </c>
       <c r="B463" t="s">
@@ -15797,8 +15730,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A464" s="3" t="s">
+    <row r="464" spans="1:10">
+      <c r="A464" t="s">
         <v>35</v>
       </c>
       <c r="B464" t="s">
@@ -15826,8 +15759,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A465" s="3" t="s">
+    <row r="465" spans="1:10">
+      <c r="A465" t="s">
         <v>35</v>
       </c>
       <c r="B465" t="s">
@@ -15837,7 +15770,7 @@
         <v>548</v>
       </c>
       <c r="E465">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="F465">
         <v>79.8</v>
@@ -15855,8 +15788,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A466" s="3" t="s">
+    <row r="466" spans="1:10">
+      <c r="A466" t="s">
         <v>35</v>
       </c>
       <c r="B466" t="s">
@@ -15884,8 +15817,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A467" s="3" t="s">
+    <row r="467" spans="1:10">
+      <c r="A467" t="s">
         <v>35</v>
       </c>
       <c r="B467" t="s">
@@ -15913,8 +15846,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A468" s="3" t="s">
+    <row r="468" spans="1:10">
+      <c r="A468" t="s">
         <v>35</v>
       </c>
       <c r="B468" t="s">
@@ -15930,7 +15863,7 @@
         <v>100</v>
       </c>
       <c r="G468">
-        <v>85.1</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="H468">
         <v>15.5</v>
@@ -15942,8 +15875,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A469" s="3" t="s">
+    <row r="469" spans="1:10">
+      <c r="A469" t="s">
         <v>35</v>
       </c>
       <c r="B469" t="s">
@@ -15956,7 +15889,7 @@
         <v>37.4</v>
       </c>
       <c r="F469">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G469">
         <v>90.8</v>
@@ -15971,8 +15904,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A470" s="3" t="s">
+    <row r="470" spans="1:10">
+      <c r="A470" t="s">
         <v>35</v>
       </c>
       <c r="B470" t="s">
@@ -15985,7 +15918,7 @@
         <v>30.5</v>
       </c>
       <c r="F470">
-        <v>72.400000000000006</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="G470">
         <v>77.2</v>
@@ -16000,8 +15933,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A471" s="3" t="s">
+    <row r="471" spans="1:10">
+      <c r="A471" t="s">
         <v>35</v>
       </c>
       <c r="B471" t="s">
@@ -16017,7 +15950,7 @@
         <v>63.3</v>
       </c>
       <c r="G471">
-        <v>69.900000000000006</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H471">
         <v>33.1</v>
@@ -16029,8 +15962,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A472" s="3" t="s">
+    <row r="472" spans="1:10">
+      <c r="A472" t="s">
         <v>35</v>
       </c>
       <c r="B472" t="s">
@@ -16058,8 +15991,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A473" s="3" t="s">
+    <row r="473" spans="1:10">
+      <c r="A473" t="s">
         <v>35</v>
       </c>
       <c r="B473" t="s">
@@ -16072,7 +16005,7 @@
         <v>36.5</v>
       </c>
       <c r="F473">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="G473">
         <v>76.5</v>
@@ -16087,8 +16020,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A474" s="3" t="s">
+    <row r="474" spans="1:10">
+      <c r="A474" t="s">
         <v>35</v>
       </c>
       <c r="B474" t="s">
@@ -16116,8 +16049,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A475" s="3" t="s">
+    <row r="475" spans="1:10">
+      <c r="A475" t="s">
         <v>35</v>
       </c>
       <c r="B475" t="s">
@@ -16145,8 +16078,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A476" s="3" t="s">
+    <row r="476" spans="1:10">
+      <c r="A476" t="s">
         <v>35</v>
       </c>
       <c r="B476" t="s">
@@ -16159,7 +16092,7 @@
         <v>25.2</v>
       </c>
       <c r="F476">
-        <v>84.6</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G476">
         <v>86.3</v>
@@ -16174,8 +16107,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A477" s="3" t="s">
+    <row r="477" spans="1:10">
+      <c r="A477" t="s">
         <v>35</v>
       </c>
       <c r="B477" t="s">
@@ -16191,7 +16124,7 @@
         <v>83.5</v>
       </c>
       <c r="G477">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H477">
         <v>12.8</v>
@@ -16203,8 +16136,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A478" s="3" t="s">
+    <row r="478" spans="1:10">
+      <c r="A478" t="s">
         <v>35</v>
       </c>
       <c r="B478" t="s">
@@ -16220,10 +16153,10 @@
         <v>75</v>
       </c>
       <c r="G478">
-        <v>92.4</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H478">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="I478">
         <v>0</v>
@@ -16232,8 +16165,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A479" s="3" t="s">
+    <row r="479" spans="1:10">
+      <c r="A479" t="s">
         <v>35</v>
       </c>
       <c r="B479" t="s">
@@ -16249,7 +16182,7 @@
         <v>82.7</v>
       </c>
       <c r="G479">
-        <v>91.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="H479">
         <v>22.2</v>
@@ -16261,8 +16194,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A480" s="3" t="s">
+    <row r="480" spans="1:10">
+      <c r="A480" t="s">
         <v>35</v>
       </c>
       <c r="B480" t="s">
@@ -16290,8 +16223,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A481" s="3" t="s">
+    <row r="481" spans="1:10">
+      <c r="A481" t="s">
         <v>35</v>
       </c>
       <c r="B481" t="s">
@@ -16319,8 +16252,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A482" s="3" t="s">
+    <row r="482" spans="1:10">
+      <c r="A482" t="s">
         <v>35</v>
       </c>
       <c r="B482" t="s">
@@ -16336,7 +16269,7 @@
         <v>75.7</v>
       </c>
       <c r="G482">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="H482">
         <v>22.9</v>
@@ -16348,8 +16281,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A483" s="3" t="s">
+    <row r="483" spans="1:10">
+      <c r="A483" t="s">
         <v>35</v>
       </c>
       <c r="B483" t="s">
@@ -16377,8 +16310,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A484" s="3" t="s">
+    <row r="484" spans="1:10">
+      <c r="A484" t="s">
         <v>35</v>
       </c>
       <c r="B484" t="s">
@@ -16394,7 +16327,7 @@
         <v>73.3</v>
       </c>
       <c r="G484">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="H484">
         <v>18.2</v>
@@ -16406,8 +16339,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A485" s="3" t="s">
+    <row r="485" spans="1:10">
+      <c r="A485" t="s">
         <v>35</v>
       </c>
       <c r="B485" t="s">
@@ -16420,10 +16353,10 @@
         <v>27.2</v>
       </c>
       <c r="F485">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G485">
-        <v>80.099999999999994</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="H485">
         <v>32.9</v>
@@ -16435,8 +16368,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A486" s="3" t="s">
+    <row r="486" spans="1:10">
+      <c r="A486" t="s">
         <v>35</v>
       </c>
       <c r="B486" t="s">
@@ -16464,8 +16397,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A487" s="3" t="s">
+    <row r="487" spans="1:10">
+      <c r="A487" t="s">
         <v>35</v>
       </c>
       <c r="B487" t="s">
@@ -16475,7 +16408,7 @@
         <v>536</v>
       </c>
       <c r="E487">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="F487">
         <v>79.7</v>
@@ -16493,8 +16426,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A488" s="3" t="s">
+    <row r="488" spans="1:10">
+      <c r="A488" t="s">
         <v>35</v>
       </c>
       <c r="B488" t="s">
@@ -16507,13 +16440,13 @@
         <v>35.1</v>
       </c>
       <c r="F488">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G488">
-        <v>72.099999999999994</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="H488">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="I488">
         <v>0</v>
@@ -16522,8 +16455,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A489" s="3" t="s">
+    <row r="489" spans="1:10">
+      <c r="A489" t="s">
         <v>35</v>
       </c>
       <c r="B489" t="s">
@@ -16539,10 +16472,10 @@
         <v>66</v>
       </c>
       <c r="G489">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="H489">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="I489">
         <v>0</v>
@@ -16551,8 +16484,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A490" s="3" t="s">
+    <row r="490" spans="1:10">
+      <c r="A490" t="s">
         <v>35</v>
       </c>
       <c r="B490" t="s">
@@ -16562,13 +16495,13 @@
         <v>536</v>
       </c>
       <c r="E490">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="F490">
         <v>75</v>
       </c>
       <c r="G490">
-        <v>74.099999999999994</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H490">
         <v>20.5</v>
@@ -16580,8 +16513,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A491" s="3" t="s">
+    <row r="491" spans="1:10">
+      <c r="A491" t="s">
         <v>35</v>
       </c>
       <c r="B491" t="s">
@@ -16597,7 +16530,7 @@
         <v>64.3</v>
       </c>
       <c r="G491">
-        <v>89.4</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="H491">
         <v>31.9</v>
@@ -16609,8 +16542,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A492" s="3" t="s">
+    <row r="492" spans="1:10">
+      <c r="A492" t="s">
         <v>35</v>
       </c>
       <c r="B492" t="s">
@@ -16626,7 +16559,7 @@
         <v>69.7</v>
       </c>
       <c r="G492">
-        <v>91.9</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H492">
         <v>25.7</v>
@@ -16638,8 +16571,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A493" s="3" t="s">
+    <row r="493" spans="1:10">
+      <c r="A493" t="s">
         <v>35</v>
       </c>
       <c r="B493" t="s">
@@ -16649,16 +16582,16 @@
         <v>555</v>
       </c>
       <c r="E493">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="F493">
         <v>100</v>
       </c>
       <c r="G493">
-        <v>87.4</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="H493">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="I493">
         <v>0</v>
@@ -16667,8 +16600,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A494" s="3" t="s">
+    <row r="494" spans="1:10">
+      <c r="A494" t="s">
         <v>35</v>
       </c>
       <c r="B494" t="s">
@@ -16678,7 +16611,7 @@
         <v>591</v>
       </c>
       <c r="E494">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="F494">
         <v>69.2</v>
@@ -16696,8 +16629,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A495" s="3" t="s">
+    <row r="495" spans="1:10">
+      <c r="A495" t="s">
         <v>35</v>
       </c>
       <c r="B495" t="s">
@@ -16713,7 +16646,7 @@
         <v>68.8</v>
       </c>
       <c r="G495">
-        <v>74.599999999999994</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="H495">
         <v>32.6</v>
@@ -16725,8 +16658,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A496" s="3" t="s">
+    <row r="496" spans="1:10">
+      <c r="A496" t="s">
         <v>35</v>
       </c>
       <c r="B496" t="s">
@@ -16754,8 +16687,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A497" s="3" t="s">
+    <row r="497" spans="1:10">
+      <c r="A497" t="s">
         <v>35</v>
       </c>
       <c r="B497" t="s">
@@ -16765,7 +16698,7 @@
         <v>537</v>
       </c>
       <c r="E497">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="F497">
         <v>71</v>
@@ -16783,8 +16716,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A498" s="3" t="s">
+    <row r="498" spans="1:10">
+      <c r="A498" t="s">
         <v>35</v>
       </c>
       <c r="B498" t="s">
@@ -16797,10 +16730,10 @@
         <v>26.5</v>
       </c>
       <c r="F498">
-        <v>74.400000000000006</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G498">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H498">
         <v>26.3</v>
@@ -16812,8 +16745,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A499" s="3" t="s">
+    <row r="499" spans="1:10">
+      <c r="A499" t="s">
         <v>35</v>
       </c>
       <c r="B499" t="s">
@@ -16841,8 +16774,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A500" s="3" t="s">
+    <row r="500" spans="1:10">
+      <c r="A500" t="s">
         <v>35</v>
       </c>
       <c r="B500" t="s">
@@ -16870,8 +16803,8 @@
         <v>592</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A501" s="3" t="s">
+    <row r="501" spans="1:10">
+      <c r="A501" t="s">
         <v>35</v>
       </c>
       <c r="B501" t="s">
